--- a/AAII_Financials/Quarterly/XSNX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XSNX_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>XSNX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,108 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E8" s="3">
+        <v>200</v>
+      </c>
+      <c r="F8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
       <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="K8" s="3">
-        <v>100</v>
-      </c>
       <c r="L8" s="3">
         <v>100</v>
       </c>
@@ -770,24 +774,27 @@
         <v>100</v>
       </c>
       <c r="N8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O8" s="3">
+        <v>200</v>
+      </c>
+      <c r="P8" s="3">
         <v>500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>400</v>
       </c>
-      <c r="Q8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E9" s="3">
         <v>200</v>
@@ -802,57 +809,60 @@
         <v>200</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J9" s="3">
+        <v>100</v>
+      </c>
+      <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
         <v>100</v>
       </c>
       <c r="O9" s="3">
+        <v>100</v>
+      </c>
+      <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>300</v>
       </c>
-      <c r="Q9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
-        <v>200</v>
-      </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
         <v>100</v>
@@ -861,10 +871,10 @@
         <v>100</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
         <v>100</v>
@@ -873,10 +883,13 @@
         <v>100</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1015,16 +1035,16 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L14" s="3">
         <v>100</v>
       </c>
       <c r="M14" s="3">
-        <v>200</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="N14" s="3">
+        <v>200</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,13 +1124,14 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E17" s="3">
         <v>300</v>
@@ -1113,75 +1140,78 @@
         <v>300</v>
       </c>
       <c r="G17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H17" s="3">
         <v>400</v>
       </c>
       <c r="I17" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
-        <v>200</v>
-      </c>
       <c r="L17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>300</v>
       </c>
       <c r="N17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O17" s="3">
+        <v>200</v>
+      </c>
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
-        <v>100</v>
-      </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-200</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O18" s="3">
         <v>0</v>
@@ -1190,10 +1220,13 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1220,93 +1254,99 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
-        <v>100</v>
-      </c>
       <c r="M20" s="3">
+        <v>100</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
         <v>0</v>
       </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,55 +1392,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1784,37 +1854,37 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>100</v>
-      </c>
       <c r="N32" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -1822,55 +1892,61 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,34 +2139,35 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -2089,19 +2176,22 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,17 +2237,20 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
-        <v>200</v>
-      </c>
       <c r="F43" s="3">
         <v>200</v>
       </c>
@@ -2165,7 +2258,7 @@
         <v>200</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -2174,7 +2267,7 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2186,16 +2279,19 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2220,29 +2316,32 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>8</v>
+      <c r="K44" s="3">
+        <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
       </c>
       <c r="O44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2288,25 +2387,28 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
         <v>500</v>
       </c>
-      <c r="E46" s="3">
-        <v>200</v>
-      </c>
       <c r="F46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G46" s="3">
         <v>300</v>
       </c>
       <c r="H46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I46" s="3">
         <v>200</v>
@@ -2315,7 +2417,7 @@
         <v>200</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
@@ -2324,19 +2426,22 @@
         <v>0</v>
       </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,8 +2487,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2429,8 +2537,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,25 +2787,28 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>200</v>
+      </c>
+      <c r="E54" s="3">
         <v>500</v>
       </c>
-      <c r="E54" s="3">
-        <v>200</v>
-      </c>
       <c r="F54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G54" s="3">
         <v>300</v>
       </c>
       <c r="H54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I54" s="3">
         <v>200</v>
@@ -2691,7 +2817,7 @@
         <v>200</v>
       </c>
       <c r="K54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L54" s="3">
         <v>0</v>
@@ -2700,19 +2826,22 @@
         <v>0</v>
       </c>
       <c r="N54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,8 +2879,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2761,10 +2892,10 @@
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
@@ -2773,10 +2904,10 @@
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -2785,27 +2916,30 @@
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
@@ -2826,10 +2960,10 @@
         <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
@@ -2838,51 +2972,54 @@
         <v>100</v>
       </c>
       <c r="P58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E59" s="3">
         <v>2500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>500</v>
-      </c>
-      <c r="O59" s="3">
-        <v>600</v>
       </c>
       <c r="P59" s="3">
         <v>600</v>
@@ -2890,55 +3027,61 @@
       <c r="Q59" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2967,7 +3110,7 @@
         <v>200</v>
       </c>
       <c r="L61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M61" s="3">
         <v>100</v>
@@ -2976,16 +3119,19 @@
         <v>100</v>
       </c>
       <c r="O61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q61" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E66" s="3">
         <v>2800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>900</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1000</v>
       </c>
       <c r="P66" s="3">
         <v>1000</v>
       </c>
       <c r="Q66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-44800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-44900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-44800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-45700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-45200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-45700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-47100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-49900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-43700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-43200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-43100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-42800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-42600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-42700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-42600</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,8 +3797,11 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3623,34 +3809,34 @@
         <v>-2300</v>
       </c>
       <c r="E76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-7500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-800</v>
       </c>
       <c r="O76" s="3">
         <v>-800</v>
@@ -3661,8 +3847,11 @@
       <c r="Q76" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,20 +4322,23 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
@@ -4129,11 +4346,11 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
@@ -4141,22 +4358,25 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>100</v>
-      </c>
       <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,16 +4394,17 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -4194,8 +4415,8 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
@@ -4218,11 +4439,14 @@
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4335,8 +4565,8 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
@@ -4347,8 +4577,8 @@
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -4362,8 +4592,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4596,16 +4842,16 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -4616,8 +4862,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,20 +4912,23 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -4687,10 +4939,10 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -4702,12 +4954,15 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
       <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XSNX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XSNX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>XSNX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,146 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>600</v>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="G8" s="3">
-        <v>300</v>
-      </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>400</v>
+      </c>
+      <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
+        <v>400</v>
+      </c>
+      <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="R8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
-      <c r="K8" s="3">
-        <v>400</v>
-      </c>
-      <c r="L8" s="3">
-        <v>100</v>
-      </c>
-      <c r="M8" s="3">
-        <v>100</v>
-      </c>
-      <c r="N8" s="3">
-        <v>100</v>
-      </c>
-      <c r="O8" s="3">
-        <v>200</v>
-      </c>
-      <c r="P8" s="3">
-        <v>500</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>400</v>
-      </c>
-      <c r="R8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3">
-        <v>400</v>
-      </c>
-      <c r="E9" s="3">
-        <v>200</v>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F9" s="3">
         <v>200</v>
@@ -805,67 +812,70 @@
       <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3">
-        <v>200</v>
-      </c>
-      <c r="J9" s="3">
-        <v>100</v>
-      </c>
       <c r="K9" s="3">
+        <v>100</v>
+      </c>
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
       <c r="M9" s="3">
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
         <v>100</v>
       </c>
       <c r="P9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="3">
         <v>400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>300</v>
       </c>
-      <c r="R9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
-      <c r="H10" s="3">
-        <v>300</v>
-      </c>
-      <c r="I10" s="3">
-        <v>200</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>100</v>
@@ -874,10 +884,10 @@
         <v>100</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
         <v>100</v>
@@ -886,10 +896,13 @@
         <v>100</v>
       </c>
       <c r="R10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1038,17 +1058,17 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M14" s="3">
         <v>100</v>
       </c>
       <c r="N14" s="3">
+        <v>100</v>
+      </c>
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1143,78 +1170,81 @@
         <v>300</v>
       </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>300</v>
+      </c>
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
+        <v>200</v>
+      </c>
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
-      </c>
-      <c r="M17" s="3">
-        <v>300</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
       </c>
       <c r="O17" s="3">
+        <v>300</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>100</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-200</v>
       </c>
       <c r="N18" s="3">
         <v>-200</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
@@ -1223,10 +1253,13 @@
         <v>0</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,108 +1278,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
-        <v>400</v>
-      </c>
       <c r="I20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J20" s="3">
         <v>1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
-        <v>100</v>
-      </c>
       <c r="N20" s="3">
+        <v>100</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>0</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>900</v>
       </c>
-      <c r="G21" s="3">
-        <v>-500</v>
-      </c>
       <c r="H21" s="3">
-        <v>500</v>
+        <v>-600</v>
       </c>
       <c r="I21" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J21" s="3">
         <v>1400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
         <v>0</v>
       </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1366,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1395,58 +1435,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K23" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
-        <v>500</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J23" s="3">
-        <v>2800</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K26" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
-        <v>500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>2800</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K27" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
-        <v>500</v>
-      </c>
-      <c r="I27" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J27" s="3">
-        <v>2800</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,31 +1753,34 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
-        <v>-400</v>
-      </c>
       <c r="I32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>100</v>
-      </c>
       <c r="O32" s="3">
+        <v>100</v>
+      </c>
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
-        <v>500</v>
-      </c>
       <c r="I33" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J33" s="3">
         <v>1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
-        <v>500</v>
-      </c>
       <c r="I35" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J35" s="3">
         <v>1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,37 +2226,38 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -2179,19 +2266,22 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,19 +2330,22 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
-      </c>
-      <c r="F43" s="3">
-        <v>200</v>
       </c>
       <c r="G43" s="3">
         <v>200</v>
@@ -2261,7 +2354,7 @@
         <v>200</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
@@ -2270,7 +2363,7 @@
         <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2282,16 +2375,19 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2319,29 +2415,32 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>8</v>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
       <c r="P44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2390,28 +2489,31 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>200</v>
-      </c>
-      <c r="G46" s="3">
-        <v>300</v>
       </c>
       <c r="H46" s="3">
         <v>300</v>
       </c>
       <c r="I46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J46" s="3">
         <v>200</v>
@@ -2420,7 +2522,7 @@
         <v>200</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
@@ -2429,19 +2531,22 @@
         <v>0</v>
       </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
-        <v>100</v>
-      </c>
       <c r="R46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,28 +2913,31 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
         <v>200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>200</v>
-      </c>
-      <c r="G54" s="3">
-        <v>300</v>
       </c>
       <c r="H54" s="3">
         <v>300</v>
       </c>
       <c r="I54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J54" s="3">
         <v>200</v>
@@ -2820,7 +2946,7 @@
         <v>200</v>
       </c>
       <c r="L54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M54" s="3">
         <v>0</v>
@@ -2829,19 +2955,22 @@
         <v>0</v>
       </c>
       <c r="O54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
-        <v>100</v>
-      </c>
       <c r="R54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,13 +3010,14 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -2895,11 +3026,11 @@
         <v>100</v>
       </c>
       <c r="G57" s="3">
+        <v>100</v>
+      </c>
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
-        <v>100</v>
-      </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
@@ -2907,11 +3038,11 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
+        <v>100</v>
+      </c>
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
-        <v>100</v>
-      </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
@@ -2919,19 +3050,22 @@
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2939,10 +3073,10 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
@@ -2963,11 +3097,11 @@
         <v>100</v>
       </c>
       <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3">
-        <v>100</v>
-      </c>
       <c r="O58" s="3">
         <v>100</v>
       </c>
@@ -2975,54 +3109,57 @@
         <v>100</v>
       </c>
       <c r="Q58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>2200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>500</v>
-      </c>
-      <c r="P59" s="3">
-        <v>600</v>
       </c>
       <c r="Q59" s="3">
         <v>600</v>
@@ -3030,58 +3167,64 @@
       <c r="R59" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3113,7 +3256,7 @@
         <v>200</v>
       </c>
       <c r="M61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N61" s="3">
         <v>100</v>
@@ -3122,16 +3265,19 @@
         <v>100</v>
       </c>
       <c r="P61" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q61" s="3">
         <v>200</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E66" s="3">
         <v>2500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>900</v>
-      </c>
-      <c r="P66" s="3">
-        <v>1000</v>
       </c>
       <c r="Q66" s="3">
         <v>1000</v>
       </c>
       <c r="R66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-44100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-44800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-44900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-44800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-45700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-45200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-45700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-47100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-49900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-43700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-43200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-43100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-42800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-42600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-42700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-42600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,46 +3983,49 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-2300</v>
+        <v>-1200</v>
       </c>
       <c r="E76" s="3">
         <v>-2300</v>
       </c>
       <c r="F76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="G76" s="3">
         <v>-2200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-7500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-800</v>
       </c>
       <c r="P76" s="3">
         <v>-800</v>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
-        <v>500</v>
-      </c>
       <c r="I81" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J81" s="3">
         <v>1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,13 +4223,14 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>200</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>100</v>
-      </c>
       <c r="R89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4406,8 +4627,8 @@
       <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -4418,8 +4639,8 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
@@ -4442,11 +4663,14 @@
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4568,8 +4798,8 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -4580,8 +4810,8 @@
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,13 +5058,16 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4845,16 +5091,16 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4924,14 +5176,14 @@
         <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -4942,10 +5194,10 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -4957,12 +5209,15 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
       <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XSNX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XSNX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>XSNX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,92 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -754,22 +761,22 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
-        <v>400</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>400</v>
@@ -778,25 +785,31 @@
         <v>100</v>
       </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="O8" s="3">
         <v>100</v>
       </c>
       <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>400</v>
       </c>
-      <c r="S8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -806,50 +819,56 @@
       <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="3">
-        <v>200</v>
-      </c>
-      <c r="K9" s="3">
-        <v>100</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
+        <v>100</v>
+      </c>
+      <c r="N9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
+        <v>100</v>
+      </c>
+      <c r="R9" s="3">
+        <v>100</v>
+      </c>
+      <c r="S9" s="3">
         <v>400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>300</v>
       </c>
-      <c r="S9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -859,50 +878,56 @@
       <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="F10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="3">
-        <v>200</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
         <v>100</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P10" s="3">
         <v>100</v>
       </c>
       <c r="Q10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R10" s="3">
         <v>100</v>
       </c>
       <c r="S10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T10" s="3">
+        <v>100</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +947,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +1002,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,16 +1061,22 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>5100</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1061,36 +1100,42 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>100</v>
+      </c>
+      <c r="P14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1134,8 +1179,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,19 +1203,21 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
-      </c>
-      <c r="E17" s="3">
-        <v>300</v>
-      </c>
-      <c r="F17" s="3">
-        <v>300</v>
       </c>
       <c r="G17" s="3">
         <v>300</v>
@@ -1173,13 +1226,13 @@
         <v>100</v>
       </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>400</v>
-      </c>
-      <c r="K17" s="3">
-        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>400</v>
@@ -1188,25 +1241,31 @@
         <v>200</v>
       </c>
       <c r="N17" s="3">
+        <v>400</v>
+      </c>
+      <c r="O17" s="3">
+        <v>200</v>
+      </c>
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,25 +1273,25 @@
         <v>8</v>
       </c>
       <c r="E18" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>100</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
@@ -1241,25 +1300,31 @@
         <v>-100</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1344,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,105 +1355,117 @@
         <v>8</v>
       </c>
       <c r="E20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I20" s="3">
         <v>800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-6200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
-        <v>100</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3">
+        <v>800</v>
+      </c>
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
-        <v>900</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>700</v>
+      </c>
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>2900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-6200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1406,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1438,61 +1517,73 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F23" s="3">
         <v>800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>900</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>700</v>
+      </c>
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-6300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1635,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1694,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F26" s="3">
         <v>800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>900</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>700</v>
+      </c>
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>2800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-6300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F27" s="3">
         <v>800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>900</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>700</v>
+      </c>
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-6300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,37 +1871,43 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-100</v>
       </c>
-      <c r="E29" s="3">
+      <c r="G29" s="3">
         <v>300</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H29" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>300</v>
+      </c>
+      <c r="J29" s="3">
+        <v>100</v>
+      </c>
+      <c r="K29" s="3">
         <v>400</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1809,8 +1930,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1989,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +2048,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,105 +2063,117 @@
         <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>2200</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="G32" s="3">
+        <v>100</v>
+      </c>
+      <c r="H32" s="3">
+        <v>200</v>
+      </c>
+      <c r="I32" s="3">
         <v>-800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>6200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>100</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
+        <v>100</v>
+      </c>
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F33" s="3">
         <v>700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-6300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2225,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F35" s="3">
         <v>700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-6300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2375,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2398,10 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2236,17 +2409,17 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -2263,13 +2436,13 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -2280,8 +2453,14 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,43 +2512,49 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3">
         <v>300</v>
-      </c>
-      <c r="G43" s="3">
-        <v>200</v>
-      </c>
-      <c r="H43" s="3">
-        <v>200</v>
       </c>
       <c r="I43" s="3">
         <v>200</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2378,16 +2563,22 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
       <c r="S43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2418,34 +2609,40 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
       </c>
       <c r="S44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2492,8 +2689,14 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2501,52 +2704,58 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
       </c>
       <c r="H46" s="3">
+        <v>500</v>
+      </c>
+      <c r="I46" s="3">
+        <v>200</v>
+      </c>
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
-      </c>
-      <c r="J46" s="3">
-        <v>200</v>
-      </c>
-      <c r="K46" s="3">
-        <v>200</v>
       </c>
       <c r="L46" s="3">
         <v>200</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
       <c r="P46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
-        <v>100</v>
-      </c>
-      <c r="S46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,13 +2807,19 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -2651,8 +2866,14 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2925,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2984,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +3043,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +3102,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3161,14 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2925,52 +3176,58 @@
         <v>0</v>
       </c>
       <c r="E54" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F54" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G54" s="3">
         <v>200</v>
       </c>
       <c r="H54" s="3">
+        <v>500</v>
+      </c>
+      <c r="I54" s="3">
+        <v>200</v>
+      </c>
+      <c r="J54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>300</v>
-      </c>
-      <c r="J54" s="3">
-        <v>200</v>
-      </c>
-      <c r="K54" s="3">
-        <v>200</v>
       </c>
       <c r="L54" s="3">
         <v>200</v>
       </c>
       <c r="M54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
       <c r="P54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
+        <v>100</v>
+      </c>
+      <c r="S54" s="3">
         <v>200</v>
       </c>
-      <c r="R54" s="3">
-        <v>100</v>
-      </c>
-      <c r="S54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>100</v>
+      </c>
+      <c r="U54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3247,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3270,69 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
+        <v>100</v>
+      </c>
+      <c r="I57" s="3">
+        <v>100</v>
+      </c>
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
-        <v>100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
-      </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
       <c r="L57" s="3">
+        <v>100</v>
+      </c>
+      <c r="M57" s="3">
+        <v>100</v>
+      </c>
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
-        <v>100</v>
-      </c>
-      <c r="N57" s="3">
-        <v>100</v>
-      </c>
       <c r="O57" s="3">
         <v>100</v>
       </c>
       <c r="P57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
-        <v>100</v>
-      </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>100</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3076,13 +3343,13 @@
         <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
@@ -3100,139 +3367,157 @@
         <v>100</v>
       </c>
       <c r="N58" s="3">
+        <v>100</v>
+      </c>
+      <c r="O58" s="3">
+        <v>100</v>
+      </c>
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3">
-        <v>100</v>
-      </c>
-      <c r="P58" s="3">
-        <v>100</v>
-      </c>
       <c r="Q58" s="3">
         <v>100</v>
       </c>
       <c r="R58" s="3">
+        <v>100</v>
+      </c>
+      <c r="S58" s="3">
+        <v>100</v>
+      </c>
+      <c r="T58" s="3">
         <v>200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>7300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>500</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>600</v>
-      </c>
-      <c r="R59" s="3">
-        <v>600</v>
       </c>
       <c r="S59" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>600</v>
+      </c>
+      <c r="U59" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F60" s="3">
         <v>1000</v>
-      </c>
-      <c r="E60" s="3">
-        <v>2300</v>
-      </c>
-      <c r="F60" s="3">
-        <v>2600</v>
       </c>
       <c r="G60" s="3">
         <v>2300</v>
       </c>
       <c r="H60" s="3">
-        <v>3300</v>
+        <v>2600</v>
       </c>
       <c r="I60" s="3">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="J60" s="3">
         <v>3300</v>
       </c>
       <c r="K60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="M60" s="3">
         <v>4600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>7500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>700</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>800</v>
-      </c>
-      <c r="R60" s="3">
-        <v>1000</v>
       </c>
       <c r="S60" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U60" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>200</v>
@@ -3259,25 +3544,31 @@
         <v>200</v>
       </c>
       <c r="N61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P61" s="3">
         <v>100</v>
       </c>
       <c r="Q61" s="3">
+        <v>100</v>
+      </c>
+      <c r="R61" s="3">
+        <v>100</v>
+      </c>
+      <c r="S61" s="3">
         <v>200</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3620,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3679,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3738,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3797,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F66" s="3">
         <v>1200</v>
-      </c>
-      <c r="E66" s="3">
-        <v>2500</v>
-      </c>
-      <c r="F66" s="3">
-        <v>2800</v>
       </c>
       <c r="G66" s="3">
         <v>2500</v>
       </c>
       <c r="H66" s="3">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="I66" s="3">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="J66" s="3">
         <v>3400</v>
       </c>
       <c r="K66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M66" s="3">
         <v>4800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>7700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3883,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3938,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3997,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4056,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4115,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-57800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-57900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-44100</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-44800</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-44900</v>
       </c>
       <c r="G72" s="3">
         <v>-44800</v>
       </c>
       <c r="H72" s="3">
-        <v>-45700</v>
+        <v>-44900</v>
       </c>
       <c r="I72" s="3">
-        <v>-45200</v>
+        <v>-44800</v>
       </c>
       <c r="J72" s="3">
         <v>-45700</v>
       </c>
       <c r="K72" s="3">
+        <v>-45200</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-45700</v>
+      </c>
+      <c r="M72" s="3">
         <v>-47100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-49900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-43700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-43200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-43100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-42800</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-42600</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-42700</v>
       </c>
       <c r="S72" s="3">
         <v>-42600</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-42700</v>
+      </c>
+      <c r="U72" s="3">
+        <v>-42600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4233,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4292,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,52 +4351,58 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-3100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-3200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-4600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-7500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-800</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-800</v>
       </c>
       <c r="R76" s="3">
         <v>-800</v>
@@ -4039,8 +4410,14 @@
       <c r="S76" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U76" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4469,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F81" s="3">
         <v>700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-6300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,19 +4619,21 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -4277,8 +4674,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4733,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4792,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4851,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4910,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,46 +4969,52 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
-        <v>100</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
+        <v>100</v>
+      </c>
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -4590,13 +5023,19 @@
         <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T89" s="3">
+        <v>100</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +5055,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4630,11 +5071,11 @@
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -4642,11 +5083,11 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
@@ -4666,11 +5107,17 @@
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5169,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,13 +5228,19 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4801,11 +5260,11 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>8</v>
@@ -4813,11 +5272,11 @@
       <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -4828,8 +5287,14 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5314,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5369,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5428,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5487,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5546,14 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5073,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -5094,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -5106,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -5114,8 +5605,14 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,29 +5664,35 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -5197,13 +5700,13 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -5212,12 +5715,18 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>100</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
+        <v>100</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XSNX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XSNX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>XSNX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,100 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -767,22 +775,22 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
       <c r="L8" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
         <v>400</v>
@@ -791,25 +799,31 @@
         <v>100</v>
       </c>
       <c r="P8" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="Q8" s="3">
         <v>100</v>
       </c>
       <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
+        <v>100</v>
+      </c>
+      <c r="T8" s="3">
         <v>200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>400</v>
       </c>
-      <c r="U8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -825,50 +839,56 @@
       <c r="G9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
-        <v>100</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
+        <v>100</v>
+      </c>
+      <c r="P9" s="3">
         <v>300</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3">
+        <v>100</v>
+      </c>
+      <c r="T9" s="3">
+        <v>100</v>
+      </c>
+      <c r="U9" s="3">
         <v>400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>300</v>
       </c>
-      <c r="U9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -884,50 +904,56 @@
       <c r="G10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
+      <c r="H10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>8</v>
+      <c r="J10" s="3">
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>100</v>
-      </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
         <v>100</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R10" s="3">
         <v>100</v>
       </c>
       <c r="S10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T10" s="3">
         <v>100</v>
       </c>
       <c r="U10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V10" s="3">
+        <v>100</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +975,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1036,14 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,23 +1101,29 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>5100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
@@ -1106,42 +1146,48 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>100</v>
+      </c>
+      <c r="R14" s="3">
+        <v>100</v>
+      </c>
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1185,8 +1231,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,40 +1257,42 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>1400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>5200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
-      <c r="K17" s="3">
-        <v>300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>400</v>
@@ -1247,25 +1301,31 @@
         <v>200</v>
       </c>
       <c r="P17" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1273,31 +1333,31 @@
         <v>8</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-5200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>100</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
+        <v>100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-100</v>
       </c>
       <c r="N18" s="3">
         <v>0</v>
@@ -1306,25 +1366,31 @@
         <v>-100</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1412,10 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1355,117 +1423,129 @@
         <v>8</v>
       </c>
       <c r="E20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>3000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-6200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
+        <v>100</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
+      <c r="E21" s="3">
+        <v>-700</v>
       </c>
       <c r="F21" s="3">
+        <v>200</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3">
         <v>800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
+        <v>700</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M21" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O21" s="3">
+        <v>2900</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="T21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
-        <v>700</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="K21" s="3">
-        <v>1500</v>
-      </c>
-      <c r="L21" s="3">
-        <v>1400</v>
-      </c>
-      <c r="M21" s="3">
-        <v>2900</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1491,13 +1571,13 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1523,67 +1603,79 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-7400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>800</v>
       </c>
-      <c r="G23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>2800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-6300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1733,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1798,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-7400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>800</v>
       </c>
-      <c r="G26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>2800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-6300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-7400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>800</v>
       </c>
-      <c r="G27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>2800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-6300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1993,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1889,31 +2011,31 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-100</v>
       </c>
-      <c r="G29" s="3">
+      <c r="I29" s="3">
+        <v>200</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>300</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>300</v>
-      </c>
-      <c r="J29" s="3">
-        <v>100</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
+        <v>100</v>
+      </c>
+      <c r="M29" s="3">
         <v>400</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -1936,8 +2058,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2188,14 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2063,117 +2203,129 @@
         <v>8</v>
       </c>
       <c r="E32" s="3">
+        <v>400</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G32" s="3">
         <v>2200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1300</v>
       </c>
-      <c r="G32" s="3">
-        <v>100</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>100</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-3000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>6200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>100</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
+        <v>100</v>
+      </c>
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-7400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
+        <v>900</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M33" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O33" s="3">
+        <v>2800</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>900</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K33" s="3">
-        <v>1900</v>
-      </c>
-      <c r="L33" s="3">
-        <v>1400</v>
-      </c>
-      <c r="M33" s="3">
-        <v>2800</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2383,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-7400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
+        <v>900</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M35" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O35" s="3">
+        <v>2800</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>900</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K35" s="3">
-        <v>1900</v>
-      </c>
-      <c r="L35" s="3">
-        <v>1400</v>
-      </c>
-      <c r="M35" s="3">
-        <v>2800</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,8 +2572,10 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2415,17 +2589,17 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2442,13 +2616,13 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
@@ -2459,8 +2633,14 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,49 +2698,55 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
         <v>300</v>
-      </c>
-      <c r="I43" s="3">
-        <v>200</v>
-      </c>
-      <c r="J43" s="3">
-        <v>200</v>
       </c>
       <c r="K43" s="3">
         <v>200</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2569,16 +2755,22 @@
         <v>0</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
       </c>
       <c r="U43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2615,40 +2807,46 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>0</v>
-      </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
       </c>
       <c r="U44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2695,8 +2893,14 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2710,52 +2914,58 @@
         <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>200</v>
       </c>
       <c r="J46" s="3">
+        <v>500</v>
+      </c>
+      <c r="K46" s="3">
+        <v>200</v>
+      </c>
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
-      </c>
-      <c r="L46" s="3">
-        <v>200</v>
-      </c>
-      <c r="M46" s="3">
-        <v>200</v>
       </c>
       <c r="N46" s="3">
         <v>200</v>
       </c>
       <c r="O46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q46" s="3">
         <v>0</v>
       </c>
       <c r="R46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
-        <v>100</v>
-      </c>
-      <c r="U46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>100</v>
+      </c>
+      <c r="W46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,19 +3023,25 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
+      <c r="E48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -2872,8 +3088,14 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3153,14 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3283,14 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3108,8 +3348,14 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,8 +3413,14 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3182,52 +3434,58 @@
         <v>0</v>
       </c>
       <c r="G54" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H54" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="I54" s="3">
         <v>200</v>
       </c>
       <c r="J54" s="3">
+        <v>500</v>
+      </c>
+      <c r="K54" s="3">
+        <v>200</v>
+      </c>
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>300</v>
-      </c>
-      <c r="L54" s="3">
-        <v>200</v>
-      </c>
-      <c r="M54" s="3">
-        <v>200</v>
       </c>
       <c r="N54" s="3">
         <v>200</v>
       </c>
       <c r="O54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q54" s="3">
         <v>0</v>
       </c>
       <c r="R54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3">
+        <v>100</v>
+      </c>
+      <c r="U54" s="3">
         <v>200</v>
       </c>
-      <c r="T54" s="3">
-        <v>100</v>
-      </c>
-      <c r="U54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>100</v>
+      </c>
+      <c r="W54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,72 +3532,80 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>300</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
-        <v>100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
       <c r="J57" s="3">
+        <v>100</v>
+      </c>
+      <c r="K57" s="3">
+        <v>100</v>
+      </c>
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
-        <v>100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>100</v>
-      </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
       <c r="N57" s="3">
+        <v>100</v>
+      </c>
+      <c r="O57" s="3">
+        <v>100</v>
+      </c>
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
-        <v>100</v>
-      </c>
-      <c r="P57" s="3">
-        <v>100</v>
-      </c>
       <c r="Q57" s="3">
         <v>100</v>
       </c>
       <c r="R57" s="3">
+        <v>100</v>
+      </c>
+      <c r="S57" s="3">
+        <v>100</v>
+      </c>
+      <c r="T57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>200</v>
       </c>
-      <c r="T57" s="3">
-        <v>100</v>
-      </c>
-      <c r="U57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>100</v>
+      </c>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
@@ -3349,13 +3617,13 @@
         <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
@@ -3373,157 +3641,175 @@
         <v>100</v>
       </c>
       <c r="P58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+      <c r="R58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3">
-        <v>100</v>
-      </c>
-      <c r="R58" s="3">
-        <v>100</v>
-      </c>
       <c r="S58" s="3">
         <v>100</v>
       </c>
       <c r="T58" s="3">
+        <v>100</v>
+      </c>
+      <c r="U58" s="3">
+        <v>100</v>
+      </c>
+      <c r="V58" s="3">
         <v>200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F59" s="3">
         <v>1900</v>
       </c>
-      <c r="E59" s="3">
-        <v>3300</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>4400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>7300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>500</v>
-      </c>
-      <c r="S59" s="3">
-        <v>600</v>
-      </c>
-      <c r="T59" s="3">
-        <v>600</v>
       </c>
       <c r="U59" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>600</v>
+      </c>
+      <c r="W59" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F60" s="3">
         <v>2200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2300</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2600</v>
       </c>
       <c r="I60" s="3">
         <v>2300</v>
       </c>
       <c r="J60" s="3">
-        <v>3300</v>
+        <v>2600</v>
       </c>
       <c r="K60" s="3">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="L60" s="3">
         <v>3300</v>
       </c>
       <c r="M60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O60" s="3">
         <v>4600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>7500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>700</v>
-      </c>
-      <c r="S60" s="3">
-        <v>800</v>
-      </c>
-      <c r="T60" s="3">
-        <v>1000</v>
       </c>
       <c r="U60" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W60" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
         <v>100</v>
       </c>
       <c r="F61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
         <v>200</v>
@@ -3550,25 +3836,31 @@
         <v>200</v>
       </c>
       <c r="P61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R61" s="3">
         <v>100</v>
       </c>
       <c r="S61" s="3">
+        <v>100</v>
+      </c>
+      <c r="T61" s="3">
+        <v>100</v>
+      </c>
+      <c r="U61" s="3">
         <v>200</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-      <c r="U61" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3626,8 +3918,14 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +4113,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F66" s="3">
         <v>2300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1200</v>
-      </c>
-      <c r="G66" s="3">
-        <v>2500</v>
-      </c>
-      <c r="H66" s="3">
-        <v>2800</v>
       </c>
       <c r="I66" s="3">
         <v>2500</v>
       </c>
       <c r="J66" s="3">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="K66" s="3">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="L66" s="3">
         <v>3400</v>
       </c>
       <c r="M66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="N66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="O66" s="3">
         <v>4800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>7700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4463,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-60600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-58500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-57800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-57900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-44100</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-44800</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-44900</v>
       </c>
       <c r="I72" s="3">
         <v>-44800</v>
       </c>
       <c r="J72" s="3">
-        <v>-45700</v>
+        <v>-44900</v>
       </c>
       <c r="K72" s="3">
-        <v>-45200</v>
+        <v>-44800</v>
       </c>
       <c r="L72" s="3">
         <v>-45700</v>
       </c>
       <c r="M72" s="3">
+        <v>-45200</v>
+      </c>
+      <c r="N72" s="3">
+        <v>-45700</v>
+      </c>
+      <c r="O72" s="3">
         <v>-47100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-49900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-43700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-43200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-43100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-42800</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-42600</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-42700</v>
       </c>
       <c r="U72" s="3">
         <v>-42600</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>-42700</v>
+      </c>
+      <c r="W72" s="3">
+        <v>-42600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,58 +4723,64 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-3600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-3100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-4600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-7500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-800</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-800</v>
       </c>
       <c r="T76" s="3">
         <v>-800</v>
@@ -4416,8 +4788,14 @@
       <c r="U76" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="W76" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4853,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-7400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
+        <v>900</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M81" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O81" s="3">
+        <v>2800</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>900</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K81" s="3">
-        <v>1900</v>
-      </c>
-      <c r="L81" s="3">
-        <v>1400</v>
-      </c>
-      <c r="M81" s="3">
-        <v>2800</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +5017,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4635,11 +5033,11 @@
       <c r="F83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
+      <c r="G83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -4680,8 +5078,14 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5403,14 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4984,43 +5418,43 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>100</v>
-      </c>
-      <c r="H89" s="3">
-        <v>200</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -5029,13 +5463,19 @@
         <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="V89" s="3">
+        <v>100</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,25 +5497,27 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -5089,11 +5531,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
@@ -5113,11 +5555,17 @@
       <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,19 +5688,25 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -5266,11 +5726,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>8</v>
@@ -5278,11 +5738,11 @@
       <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -5293,8 +5753,14 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +6038,14 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5561,7 +6053,7 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
@@ -5570,7 +6062,7 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -5591,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -5603,7 +6095,7 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -5611,8 +6103,14 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,8 +6168,14 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5682,22 +6186,22 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
-      </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>200</v>
       </c>
       <c r="I102" s="3">
         <v>-100</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -5706,13 +6210,13 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
@@ -5721,12 +6225,18 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>100</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
+        <v>100</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XSNX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XSNX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>XSNX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,107 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,22 +788,22 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
       <c r="N8" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
         <v>400</v>
@@ -805,25 +812,31 @@
         <v>100</v>
       </c>
       <c r="R8" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="S8" s="3">
         <v>100</v>
       </c>
       <c r="T8" s="3">
+        <v>100</v>
+      </c>
+      <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
         <v>200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>400</v>
       </c>
-      <c r="W8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -845,50 +858,56 @@
       <c r="I9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P9" s="3">
         <v>200</v>
       </c>
-      <c r="O9" s="3">
-        <v>100</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
+        <v>100</v>
+      </c>
+      <c r="R9" s="3">
         <v>300</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U9" s="3">
+        <v>100</v>
+      </c>
+      <c r="V9" s="3">
+        <v>100</v>
+      </c>
+      <c r="W9" s="3">
         <v>400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>300</v>
       </c>
-      <c r="W9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -910,50 +929,56 @@
       <c r="I10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
+      <c r="J10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>8</v>
+      <c r="L10" s="3">
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
-        <v>100</v>
-      </c>
       <c r="Q10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R10" s="3">
         <v>100</v>
       </c>
       <c r="S10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T10" s="3">
         <v>100</v>
       </c>
       <c r="U10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V10" s="3">
         <v>100</v>
       </c>
       <c r="W10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X10" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,13 +1002,15 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
+      <c r="D12" s="3">
+        <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>8</v>
@@ -1042,8 +1069,14 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,29 +1140,35 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>5100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -1152,48 +1191,54 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>100</v>
+      </c>
+      <c r="T14" s="3">
+        <v>100</v>
+      </c>
+      <c r="U14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1237,8 +1282,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,32 +1310,34 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>500</v>
+      </c>
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>5200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
       <c r="K17" s="3">
         <v>100</v>
       </c>
@@ -1292,13 +1345,13 @@
         <v>100</v>
       </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
         <v>300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>400</v>
-      </c>
-      <c r="O17" s="3">
-        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>400</v>
@@ -1307,25 +1360,31 @@
         <v>200</v>
       </c>
       <c r="R17" s="3">
+        <v>400</v>
+      </c>
+      <c r="S17" s="3">
+        <v>200</v>
+      </c>
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,37 +1392,37 @@
         <v>8</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-5200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>100</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
       <c r="L18" s="3">
+        <v>100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-300</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
@@ -1372,25 +1431,31 @@
         <v>-100</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
         <v>0</v>
       </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1479,10 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1423,64 +1490,70 @@
         <v>8</v>
       </c>
       <c r="E20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-2200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>3000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3">
-        <v>100</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
+        <v>100</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,72 +1561,78 @@
         <v>8</v>
       </c>
       <c r="E21" s="3">
+        <v>500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3">
         <v>800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>2900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
       <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1577,13 +1656,13 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1609,73 +1688,85 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-7400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1830,14 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1901,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-7400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>2800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-7400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>2800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,13 +2114,19 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -2017,31 +2138,31 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>200</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>300</v>
       </c>
-      <c r="L29" s="3">
-        <v>100</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
+        <v>100</v>
+      </c>
+      <c r="O29" s="3">
         <v>400</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2064,8 +2185,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2256,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2327,14 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2203,129 +2342,141 @@
         <v>8</v>
       </c>
       <c r="E32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>2200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1300</v>
       </c>
-      <c r="I32" s="3">
-        <v>100</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
+        <v>100</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-3000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>6200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>100</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
+        <v>100</v>
+      </c>
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-7400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>700</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>2800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2540,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-7400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>700</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>2800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2718,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2745,10 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2583,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -2595,17 +2768,17 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2622,13 +2795,13 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
@@ -2639,8 +2812,14 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2883,14 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2718,41 +2903,41 @@
       <c r="F43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
+      <c r="G43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
         <v>300</v>
-      </c>
-      <c r="K43" s="3">
-        <v>200</v>
-      </c>
-      <c r="L43" s="3">
-        <v>200</v>
       </c>
       <c r="M43" s="3">
         <v>200</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2761,16 +2946,22 @@
         <v>0</v>
       </c>
       <c r="U43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
       <c r="W43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2813,46 +3004,52 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S44" s="3">
-        <v>0</v>
-      </c>
-      <c r="T44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
       </c>
       <c r="W44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2899,8 +3096,14 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2908,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -2920,52 +3123,58 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
       </c>
       <c r="L46" s="3">
+        <v>500</v>
+      </c>
+      <c r="M46" s="3">
+        <v>200</v>
+      </c>
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
-      </c>
-      <c r="N46" s="3">
-        <v>200</v>
-      </c>
-      <c r="O46" s="3">
-        <v>200</v>
       </c>
       <c r="P46" s="3">
         <v>200</v>
       </c>
       <c r="Q46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
       <c r="T46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>100</v>
+      </c>
+      <c r="W46" s="3">
         <v>200</v>
       </c>
-      <c r="V46" s="3">
-        <v>100</v>
-      </c>
-      <c r="W46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3238,14 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3043,11 +3258,11 @@
       <c r="F48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
+      <c r="G48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -3094,8 +3309,14 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3380,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3451,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3522,14 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3593,14 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,8 +3664,14 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3428,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -3440,52 +3691,58 @@
         <v>0</v>
       </c>
       <c r="I54" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K54" s="3">
         <v>200</v>
       </c>
       <c r="L54" s="3">
+        <v>500</v>
+      </c>
+      <c r="M54" s="3">
+        <v>200</v>
+      </c>
+      <c r="N54" s="3">
         <v>300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>300</v>
-      </c>
-      <c r="N54" s="3">
-        <v>200</v>
-      </c>
-      <c r="O54" s="3">
-        <v>200</v>
       </c>
       <c r="P54" s="3">
         <v>200</v>
       </c>
       <c r="Q54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S54" s="3">
         <v>0</v>
       </c>
       <c r="T54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
+        <v>100</v>
+      </c>
+      <c r="W54" s="3">
         <v>200</v>
       </c>
-      <c r="V54" s="3">
-        <v>100</v>
-      </c>
-      <c r="W54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3766,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,84 +3793,92 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
-        <v>100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
       <c r="L57" s="3">
+        <v>100</v>
+      </c>
+      <c r="M57" s="3">
+        <v>100</v>
+      </c>
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
-        <v>100</v>
-      </c>
-      <c r="N57" s="3">
-        <v>100</v>
-      </c>
       <c r="O57" s="3">
         <v>100</v>
       </c>
       <c r="P57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
-        <v>100</v>
-      </c>
-      <c r="R57" s="3">
-        <v>100</v>
-      </c>
       <c r="S57" s="3">
         <v>100</v>
       </c>
       <c r="T57" s="3">
+        <v>100</v>
+      </c>
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+      <c r="V57" s="3">
         <v>200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>200</v>
       </c>
-      <c r="V57" s="3">
-        <v>100</v>
-      </c>
-      <c r="W57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
@@ -3623,13 +3890,13 @@
         <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
@@ -3647,155 +3914,173 @@
         <v>100</v>
       </c>
       <c r="R58" s="3">
+        <v>100</v>
+      </c>
+      <c r="S58" s="3">
+        <v>100</v>
+      </c>
+      <c r="T58" s="3">
         <v>200</v>
       </c>
-      <c r="S58" s="3">
-        <v>100</v>
-      </c>
-      <c r="T58" s="3">
-        <v>100</v>
-      </c>
       <c r="U58" s="3">
         <v>100</v>
       </c>
       <c r="V58" s="3">
+        <v>100</v>
+      </c>
+      <c r="W58" s="3">
+        <v>100</v>
+      </c>
+      <c r="X58" s="3">
         <v>200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F59" s="3">
         <v>3900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>4400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>7300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>500</v>
-      </c>
-      <c r="U59" s="3">
-        <v>600</v>
-      </c>
-      <c r="V59" s="3">
-        <v>600</v>
       </c>
       <c r="W59" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F60" s="3">
         <v>4300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1000</v>
-      </c>
-      <c r="I60" s="3">
-        <v>2300</v>
-      </c>
-      <c r="J60" s="3">
-        <v>2600</v>
       </c>
       <c r="K60" s="3">
         <v>2300</v>
       </c>
       <c r="L60" s="3">
-        <v>3300</v>
+        <v>2600</v>
       </c>
       <c r="M60" s="3">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="N60" s="3">
         <v>3300</v>
       </c>
       <c r="O60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="P60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Q60" s="3">
         <v>4600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>7500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>700</v>
-      </c>
-      <c r="U60" s="3">
-        <v>800</v>
-      </c>
-      <c r="V60" s="3">
-        <v>1000</v>
       </c>
       <c r="W60" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3803,19 +4088,19 @@
         <v>200</v>
       </c>
       <c r="E61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G61" s="3">
         <v>100</v>
       </c>
       <c r="H61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
         <v>200</v>
@@ -3842,25 +4127,31 @@
         <v>200</v>
       </c>
       <c r="R61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T61" s="3">
         <v>100</v>
       </c>
       <c r="U61" s="3">
+        <v>100</v>
+      </c>
+      <c r="V61" s="3">
+        <v>100</v>
+      </c>
+      <c r="W61" s="3">
         <v>200</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-      <c r="W61" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4215,14 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4286,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4357,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4428,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F66" s="3">
         <v>4500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1200</v>
-      </c>
-      <c r="I66" s="3">
-        <v>2500</v>
-      </c>
-      <c r="J66" s="3">
-        <v>2800</v>
       </c>
       <c r="K66" s="3">
         <v>2500</v>
       </c>
       <c r="L66" s="3">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="M66" s="3">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="N66" s="3">
         <v>3400</v>
       </c>
       <c r="O66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="P66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Q66" s="3">
         <v>4800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>7700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4530,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4597,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4668,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4739,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,8 +4810,14 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4478,64 +4825,70 @@
         <v>-60600</v>
       </c>
       <c r="E72" s="3">
+        <v>-60500</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-60600</v>
+      </c>
+      <c r="G72" s="3">
         <v>-58500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-57800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-57900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-44100</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-44800</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-44900</v>
       </c>
       <c r="K72" s="3">
         <v>-44800</v>
       </c>
       <c r="L72" s="3">
-        <v>-45700</v>
+        <v>-44900</v>
       </c>
       <c r="M72" s="3">
-        <v>-45200</v>
+        <v>-44800</v>
       </c>
       <c r="N72" s="3">
         <v>-45700</v>
       </c>
       <c r="O72" s="3">
+        <v>-45200</v>
+      </c>
+      <c r="P72" s="3">
+        <v>-45700</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-47100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-49900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-43700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-43200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-43100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-42800</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-42600</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-42700</v>
       </c>
       <c r="W72" s="3">
         <v>-42600</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>-42700</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>-42600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4952,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5023,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,64 +5094,70 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-4500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-3600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-3200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-4600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-800</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-800</v>
       </c>
       <c r="V76" s="3">
         <v>-800</v>
@@ -4794,8 +5165,14 @@
       <c r="W76" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5236,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-7400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>700</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>2800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5414,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5039,11 +5436,11 @@
       <c r="H83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="I83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -5084,8 +5481,14 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5552,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5623,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5694,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5765,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,58 +5836,64 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>200</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
@@ -5469,13 +5902,19 @@
         <v>-100</v>
       </c>
       <c r="V89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="X89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5938,10 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5537,11 +5978,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>8</v>
@@ -5561,11 +6002,17 @@
       <c r="V91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6076,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,25 +6147,31 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -5732,11 +6191,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>8</v>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>8</v>
@@ -5744,11 +6203,11 @@
       <c r="R94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -5759,8 +6218,14 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6249,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6316,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6387,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6458,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,23 +6529,29 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>400</v>
+      </c>
+      <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
@@ -6068,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -6089,7 +6580,7 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -6101,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
@@ -6109,8 +6600,14 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,16 +6671,22 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -6192,22 +6695,22 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J102" s="3">
-        <v>200</v>
       </c>
       <c r="K102" s="3">
         <v>-100</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -6216,13 +6719,13 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
@@ -6231,12 +6734,18 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
-        <v>100</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XSNX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XSNX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>XSNX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,126 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -794,22 +802,22 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R8" s="3">
         <v>400</v>
@@ -818,25 +826,31 @@
         <v>100</v>
       </c>
       <c r="T8" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="U8" s="3">
         <v>100</v>
       </c>
       <c r="V8" s="3">
+        <v>100</v>
+      </c>
+      <c r="W8" s="3">
+        <v>100</v>
+      </c>
+      <c r="X8" s="3">
         <v>200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>400</v>
       </c>
-      <c r="Y8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -864,50 +878,56 @@
       <c r="K9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R9" s="3">
         <v>200</v>
       </c>
-      <c r="Q9" s="3">
-        <v>100</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
+        <v>100</v>
+      </c>
+      <c r="T9" s="3">
         <v>300</v>
       </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
       <c r="U9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W9" s="3">
+        <v>100</v>
+      </c>
+      <c r="X9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y9" s="3">
         <v>400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>300</v>
       </c>
-      <c r="Y9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -935,50 +955,56 @@
       <c r="K10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
+      <c r="L10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>8</v>
+      <c r="N10" s="3">
+        <v>0</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3">
-        <v>100</v>
-      </c>
       <c r="S10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T10" s="3">
         <v>100</v>
       </c>
       <c r="U10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V10" s="3">
         <v>100</v>
       </c>
       <c r="W10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X10" s="3">
         <v>100</v>
       </c>
       <c r="Y10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,19 +1030,21 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,35 +1180,41 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>5100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -1197,28 +1237,34 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>100</v>
+      </c>
+      <c r="V14" s="3">
+        <v>100</v>
+      </c>
+      <c r="W14" s="3">
         <v>200</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1231,20 +1277,20 @@
       <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,8 +1364,10 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1324,26 +1378,26 @@
         <v>500</v>
       </c>
       <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>500</v>
+      </c>
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>5200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
-        <v>100</v>
-      </c>
-      <c r="L17" s="3">
-        <v>100</v>
-      </c>
       <c r="M17" s="3">
         <v>100</v>
       </c>
@@ -1351,13 +1405,13 @@
         <v>100</v>
       </c>
       <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>300</v>
-      </c>
-      <c r="P17" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>200</v>
       </c>
       <c r="R17" s="3">
         <v>400</v>
@@ -1366,69 +1420,75 @@
         <v>200</v>
       </c>
       <c r="T17" s="3">
+        <v>400</v>
+      </c>
+      <c r="U17" s="3">
+        <v>200</v>
+      </c>
+      <c r="V17" s="3">
         <v>300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-5200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L18" s="3">
-        <v>100</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
       <c r="N18" s="3">
+        <v>100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
       </c>
       <c r="R18" s="3">
         <v>0</v>
@@ -1437,25 +1497,31 @@
         <v>-100</v>
       </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
         <v>0</v>
       </c>
       <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,165 +1547,179 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-2200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>1500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>3000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-6200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-300</v>
       </c>
-      <c r="T20" s="3">
-        <v>100</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
+        <v>100</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3">
         <v>500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
         <v>800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>2900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-6200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
       <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
@@ -1662,13 +1742,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1694,79 +1774,91 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>100</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-2100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-7400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>2800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-6300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
       <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>100</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-2100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-7400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>1400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>2800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-6300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
       <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>100</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-7400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>1400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>2800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-6300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
       <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,19 +2236,25 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -2144,31 +2266,31 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>200</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>300</v>
       </c>
-      <c r="N29" s="3">
-        <v>100</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q29" s="3">
         <v>400</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2467,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>2200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1300</v>
       </c>
-      <c r="K32" s="3">
-        <v>100</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
+        <v>100</v>
+      </c>
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-3000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>6200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>100</v>
-      </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
+        <v>100</v>
+      </c>
+      <c r="X32" s="3">
         <v>200</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>100</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-7400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>700</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>1400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>2800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-6300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
       <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>100</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-7400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>700</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>1400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>2800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-6300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
       <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,23 +2919,25 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -2774,17 +2948,17 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>100</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
@@ -2801,13 +2975,13 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
@@ -2818,8 +2992,14 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,25 +3069,31 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>8</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -2916,34 +3102,34 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
         <v>300</v>
-      </c>
-      <c r="M43" s="3">
-        <v>200</v>
-      </c>
-      <c r="N43" s="3">
-        <v>200</v>
       </c>
       <c r="O43" s="3">
         <v>200</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R43" s="3">
         <v>100</v>
       </c>
       <c r="S43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
@@ -2952,16 +3138,22 @@
         <v>0</v>
       </c>
       <c r="W43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X43" s="3">
         <v>0</v>
       </c>
       <c r="Y43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3010,34 +3202,40 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U44" s="3">
-        <v>0</v>
-      </c>
-      <c r="V44" s="3">
-        <v>0</v>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X44" s="3">
         <v>0</v>
       </c>
       <c r="Y44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -3045,17 +3243,17 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -3102,23 +3300,29 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
@@ -3129,52 +3333,58 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="M46" s="3">
         <v>200</v>
       </c>
       <c r="N46" s="3">
+        <v>500</v>
+      </c>
+      <c r="O46" s="3">
+        <v>200</v>
+      </c>
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
-      </c>
-      <c r="P46" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>200</v>
       </c>
       <c r="R46" s="3">
         <v>200</v>
       </c>
       <c r="S46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U46" s="3">
         <v>0</v>
       </c>
       <c r="V46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y46" s="3">
         <v>200</v>
       </c>
-      <c r="X46" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,25 +3454,31 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>8</v>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -3315,8 +3531,14 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,23 +3916,29 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E54" s="3">
+        <v>100</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
         <v>200</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
@@ -3697,52 +3949,58 @@
         <v>0</v>
       </c>
       <c r="K54" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L54" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="M54" s="3">
         <v>200</v>
       </c>
       <c r="N54" s="3">
+        <v>500</v>
+      </c>
+      <c r="O54" s="3">
+        <v>200</v>
+      </c>
+      <c r="P54" s="3">
         <v>300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>300</v>
-      </c>
-      <c r="P54" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>200</v>
       </c>
       <c r="R54" s="3">
         <v>200</v>
       </c>
       <c r="S54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U54" s="3">
         <v>0</v>
       </c>
       <c r="V54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W54" s="3">
+        <v>0</v>
+      </c>
+      <c r="X54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y54" s="3">
         <v>200</v>
       </c>
-      <c r="X54" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,96 +4055,104 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
-        <v>100</v>
-      </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
+        <v>100</v>
+      </c>
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
-        <v>100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
       <c r="N57" s="3">
+        <v>100</v>
+      </c>
+      <c r="O57" s="3">
+        <v>100</v>
+      </c>
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
-        <v>100</v>
-      </c>
-      <c r="P57" s="3">
-        <v>100</v>
-      </c>
       <c r="Q57" s="3">
         <v>100</v>
       </c>
       <c r="R57" s="3">
+        <v>100</v>
+      </c>
+      <c r="S57" s="3">
+        <v>100</v>
+      </c>
+      <c r="T57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3">
-        <v>100</v>
-      </c>
-      <c r="T57" s="3">
-        <v>100</v>
-      </c>
       <c r="U57" s="3">
         <v>100</v>
       </c>
       <c r="V57" s="3">
+        <v>100</v>
+      </c>
+      <c r="W57" s="3">
+        <v>100</v>
+      </c>
+      <c r="X57" s="3">
         <v>200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>200</v>
       </c>
-      <c r="X57" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>600</v>
+      </c>
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
-        <v>100</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
@@ -3896,13 +4164,13 @@
         <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
@@ -3920,167 +4188,185 @@
         <v>100</v>
       </c>
       <c r="T58" s="3">
+        <v>100</v>
+      </c>
+      <c r="U58" s="3">
+        <v>100</v>
+      </c>
+      <c r="V58" s="3">
         <v>200</v>
       </c>
-      <c r="U58" s="3">
-        <v>100</v>
-      </c>
-      <c r="V58" s="3">
-        <v>100</v>
-      </c>
       <c r="W58" s="3">
         <v>100</v>
       </c>
       <c r="X58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z58" s="3">
         <v>200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F59" s="3">
         <v>3200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>4400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>7300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>500</v>
-      </c>
-      <c r="W59" s="3">
-        <v>600</v>
-      </c>
-      <c r="X59" s="3">
-        <v>600</v>
       </c>
       <c r="Y59" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F60" s="3">
         <v>3900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1000</v>
-      </c>
-      <c r="K60" s="3">
-        <v>2300</v>
-      </c>
-      <c r="L60" s="3">
-        <v>2600</v>
       </c>
       <c r="M60" s="3">
         <v>2300</v>
       </c>
       <c r="N60" s="3">
-        <v>3300</v>
+        <v>2600</v>
       </c>
       <c r="O60" s="3">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="P60" s="3">
         <v>3300</v>
       </c>
       <c r="Q60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="R60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="S60" s="3">
         <v>4600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>7500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>700</v>
-      </c>
-      <c r="W60" s="3">
-        <v>800</v>
-      </c>
-      <c r="X60" s="3">
-        <v>1000</v>
       </c>
       <c r="Y60" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4094,19 +4380,19 @@
         <v>200</v>
       </c>
       <c r="G61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I61" s="3">
         <v>100</v>
       </c>
       <c r="J61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L61" s="3">
         <v>200</v>
@@ -4133,25 +4419,31 @@
         <v>200</v>
       </c>
       <c r="T61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V61" s="3">
         <v>100</v>
       </c>
       <c r="W61" s="3">
+        <v>100</v>
+      </c>
+      <c r="X61" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y61" s="3">
         <v>200</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4221,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F66" s="3">
         <v>4000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1200</v>
-      </c>
-      <c r="K66" s="3">
-        <v>2500</v>
-      </c>
-      <c r="L66" s="3">
-        <v>2800</v>
       </c>
       <c r="M66" s="3">
         <v>2500</v>
       </c>
       <c r="N66" s="3">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="O66" s="3">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="P66" s="3">
         <v>3400</v>
       </c>
       <c r="Q66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="R66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="S66" s="3">
         <v>4800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>7700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-60600</v>
+        <v>-62100</v>
       </c>
       <c r="E72" s="3">
-        <v>-60500</v>
+        <v>-61800</v>
       </c>
       <c r="F72" s="3">
         <v>-60600</v>
       </c>
       <c r="G72" s="3">
+        <v>-60500</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-60600</v>
+      </c>
+      <c r="I72" s="3">
         <v>-58500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-57800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-57900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-44100</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-44800</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-44900</v>
       </c>
       <c r="M72" s="3">
         <v>-44800</v>
       </c>
       <c r="N72" s="3">
-        <v>-45700</v>
+        <v>-44900</v>
       </c>
       <c r="O72" s="3">
-        <v>-45200</v>
+        <v>-44800</v>
       </c>
       <c r="P72" s="3">
         <v>-45700</v>
       </c>
       <c r="Q72" s="3">
+        <v>-45200</v>
+      </c>
+      <c r="R72" s="3">
+        <v>-45700</v>
+      </c>
+      <c r="S72" s="3">
         <v>-47100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-49900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-43700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-43200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-43100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-42800</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-42600</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-42700</v>
       </c>
       <c r="Y72" s="3">
         <v>-42600</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3">
+        <v>-42700</v>
+      </c>
+      <c r="AA72" s="3">
+        <v>-42600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,70 +5466,76 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-4000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-3900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-4500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-3600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-3100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-4600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-7500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-1300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="V76" s="3">
-        <v>-800</v>
-      </c>
-      <c r="W76" s="3">
-        <v>-800</v>
       </c>
       <c r="X76" s="3">
         <v>-800</v>
@@ -5171,8 +5543,14 @@
       <c r="Y76" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="AA76" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>100</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-7400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>700</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>1400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>2800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-6300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
       <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,37 +5812,39 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,64 +6270,70 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-300</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-200</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>200</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
       <c r="U89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V89" s="3">
         <v>0</v>
@@ -5908,13 +6342,19 @@
         <v>-100</v>
       </c>
       <c r="X89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5984,11 +6426,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>8</v>
@@ -6008,11 +6450,17 @@
       <c r="X91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,31 +6607,37 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -6197,11 +6657,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>8</v>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>8</v>
@@ -6209,11 +6669,11 @@
       <c r="T94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
+      <c r="U94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
@@ -6224,8 +6684,14 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,29 +7021,35 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
+        <v>300</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
@@ -6565,7 +7057,7 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -6586,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -6598,7 +7090,7 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X100" s="3">
         <v>0</v>
@@ -6606,8 +7098,14 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,23 +7175,29 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -6701,22 +7205,22 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L102" s="3">
-        <v>200</v>
       </c>
       <c r="M102" s="3">
         <v>-100</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
@@ -6725,13 +7229,13 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U102" s="3">
         <v>0</v>
@@ -6740,12 +7244,18 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XSNX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XSNX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
   <si>
     <t>XSNX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,122 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -786,11 +793,11 @@
       <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
+      <c r="G8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -808,22 +815,22 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
       <c r="R8" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T8" s="3">
         <v>400</v>
@@ -832,25 +839,31 @@
         <v>100</v>
       </c>
       <c r="V8" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="W8" s="3">
         <v>100</v>
       </c>
       <c r="X8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z8" s="3">
         <v>200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>400</v>
       </c>
-      <c r="AA8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -884,50 +897,56 @@
       <c r="M9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P9" s="3">
         <v>200</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T9" s="3">
         <v>200</v>
       </c>
-      <c r="S9" s="3">
-        <v>100</v>
-      </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
+        <v>100</v>
+      </c>
+      <c r="V9" s="3">
         <v>300</v>
       </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
       <c r="W9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA9" s="3">
         <v>400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>300</v>
       </c>
-      <c r="AA9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -961,50 +980,56 @@
       <c r="M10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
+      <c r="N10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>8</v>
+      <c r="P10" s="3">
+        <v>0</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-      <c r="T10" s="3">
-        <v>100</v>
-      </c>
       <c r="U10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V10" s="3">
         <v>100</v>
       </c>
       <c r="W10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X10" s="3">
         <v>100</v>
       </c>
       <c r="Y10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="3">
         <v>100</v>
       </c>
       <c r="AA10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,25 +1057,27 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>8</v>
@@ -1109,8 +1136,14 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,41 +1219,47 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>100</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>5100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1243,28 +1282,34 @@
         <v>0</v>
       </c>
       <c r="U14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>100</v>
+      </c>
+      <c r="X14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y14" s="3">
         <v>200</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1283,20 +1328,20 @@
       <c r="H15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1340,8 +1385,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,16 +1417,18 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
-      </c>
-      <c r="E17" s="3">
-        <v>500</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
@@ -1384,26 +1437,26 @@
         <v>500</v>
       </c>
       <c r="H17" s="3">
+        <v>300</v>
+      </c>
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
+        <v>500</v>
+      </c>
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>5200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
-      <c r="N17" s="3">
-        <v>100</v>
-      </c>
       <c r="O17" s="3">
         <v>100</v>
       </c>
@@ -1411,13 +1464,13 @@
         <v>100</v>
       </c>
       <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
         <v>300</v>
-      </c>
-      <c r="R17" s="3">
-        <v>400</v>
-      </c>
-      <c r="S17" s="3">
-        <v>200</v>
       </c>
       <c r="T17" s="3">
         <v>400</v>
@@ -1426,25 +1479,31 @@
         <v>200</v>
       </c>
       <c r="V17" s="3">
+        <v>400</v>
+      </c>
+      <c r="W17" s="3">
+        <v>200</v>
+      </c>
+      <c r="X17" s="3">
         <v>300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1457,44 +1516,44 @@
       <c r="F18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-5200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>100</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
       <c r="P18" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-300</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-100</v>
       </c>
       <c r="T18" s="3">
         <v>0</v>
@@ -1503,25 +1562,31 @@
         <v>-100</v>
       </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
       <c r="Z18" s="3">
         <v>0</v>
       </c>
       <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1614,10 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1563,71 +1630,77 @@
       <c r="F20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-2200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>1900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>1500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>3000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-6200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-300</v>
       </c>
-      <c r="V20" s="3">
-        <v>100</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-200</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1640,92 +1713,98 @@
       <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="3">
         <v>500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-2100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>1400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>2900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-6200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-200</v>
       </c>
-      <c r="Y21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>0</v>
-      </c>
       <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>500</v>
+      </c>
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
@@ -1748,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1780,85 +1859,97 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-2100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-7400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>1500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>1400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>2800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-6300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-200</v>
       </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
       <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +2025,14 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2108,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-2100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-7400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>1500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>2800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-6300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-200</v>
       </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
       <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-7400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>1500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>2800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-6300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-200</v>
       </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
       <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2357,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,11 +2377,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -2272,31 +2393,31 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>200</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>300</v>
       </c>
-      <c r="P29" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
+        <v>100</v>
+      </c>
+      <c r="S29" s="3">
         <v>400</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
@@ -2319,8 +2440,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2606,14 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2487,148 +2626,160 @@
       <c r="F32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>2200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1300</v>
       </c>
-      <c r="M32" s="3">
-        <v>100</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
+        <v>100</v>
+      </c>
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-1900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-1500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-3000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>6200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
-        <v>100</v>
-      </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z32" s="3">
         <v>200</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-7400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>700</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>1900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>2800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-6300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-200</v>
       </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
       <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2855,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-7400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>700</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>1900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>2800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-6300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-200</v>
       </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
       <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,29 +3092,31 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -2954,17 +3127,17 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
@@ -2981,13 +3154,13 @@
         <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
       </c>
       <c r="X41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="3">
         <v>0</v>
@@ -2998,8 +3171,14 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3254,14 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3108,34 +3293,34 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
         <v>300</v>
-      </c>
-      <c r="O43" s="3">
-        <v>200</v>
-      </c>
-      <c r="P43" s="3">
-        <v>200</v>
       </c>
       <c r="Q43" s="3">
         <v>200</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T43" s="3">
         <v>100</v>
       </c>
       <c r="U43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
@@ -3144,16 +3329,22 @@
         <v>0</v>
       </c>
       <c r="Y43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="3">
         <v>0</v>
       </c>
       <c r="AA43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3208,40 +3399,46 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W44" s="3">
-        <v>0</v>
-      </c>
-      <c r="X44" s="3">
-        <v>0</v>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z44" s="3">
         <v>0</v>
       </c>
       <c r="AA44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -3249,17 +3446,17 @@
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -3306,29 +3503,35 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
-        <v>100</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
@@ -3339,52 +3542,58 @@
         <v>0</v>
       </c>
       <c r="M46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
       </c>
       <c r="P46" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>200</v>
+      </c>
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>300</v>
-      </c>
-      <c r="R46" s="3">
-        <v>200</v>
-      </c>
-      <c r="S46" s="3">
-        <v>200</v>
       </c>
       <c r="T46" s="3">
         <v>200</v>
       </c>
       <c r="U46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W46" s="3">
         <v>0</v>
       </c>
       <c r="X46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA46" s="3">
         <v>200</v>
       </c>
-      <c r="Z46" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA46" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3669,14 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3537,8 +3752,14 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3835,14 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +4001,14 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +4084,14 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,29 +4167,35 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>100</v>
+      </c>
+      <c r="F54" s="3">
         <v>200</v>
       </c>
-      <c r="E54" s="3">
-        <v>100</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
       <c r="G54" s="3">
+        <v>100</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
@@ -3955,52 +4206,58 @@
         <v>0</v>
       </c>
       <c r="M54" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N54" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="O54" s="3">
         <v>200</v>
       </c>
       <c r="P54" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>200</v>
+      </c>
+      <c r="R54" s="3">
         <v>300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>300</v>
-      </c>
-      <c r="R54" s="3">
-        <v>200</v>
-      </c>
-      <c r="S54" s="3">
-        <v>200</v>
       </c>
       <c r="T54" s="3">
         <v>200</v>
       </c>
       <c r="U54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W54" s="3">
         <v>0</v>
       </c>
       <c r="X54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA54" s="3">
         <v>200</v>
       </c>
-      <c r="Z54" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA54" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,108 +4316,116 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
       </c>
       <c r="F57" s="3">
+        <v>300</v>
+      </c>
+      <c r="G57" s="3">
+        <v>400</v>
+      </c>
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
-        <v>100</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
+        <v>100</v>
+      </c>
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
-        <v>100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
       <c r="M57" s="3">
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O57" s="3">
         <v>100</v>
       </c>
       <c r="P57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
-        <v>100</v>
-      </c>
-      <c r="R57" s="3">
-        <v>100</v>
-      </c>
       <c r="S57" s="3">
         <v>100</v>
       </c>
       <c r="T57" s="3">
+        <v>100</v>
+      </c>
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+      <c r="V57" s="3">
         <v>200</v>
       </c>
-      <c r="U57" s="3">
-        <v>100</v>
-      </c>
-      <c r="V57" s="3">
-        <v>100</v>
-      </c>
       <c r="W57" s="3">
         <v>100</v>
       </c>
       <c r="X57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z57" s="3">
         <v>200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>200</v>
       </c>
-      <c r="Z57" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F58" s="3">
         <v>600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3">
-        <v>100</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
@@ -4170,13 +4437,13 @@
         <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
       </c>
       <c r="P58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>100</v>
@@ -4194,187 +4461,205 @@
         <v>100</v>
       </c>
       <c r="V58" s="3">
+        <v>100</v>
+      </c>
+      <c r="W58" s="3">
+        <v>100</v>
+      </c>
+      <c r="X58" s="3">
         <v>200</v>
       </c>
-      <c r="W58" s="3">
-        <v>100</v>
-      </c>
-      <c r="X58" s="3">
-        <v>100</v>
-      </c>
       <c r="Y58" s="3">
         <v>100</v>
       </c>
       <c r="Z58" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB58" s="3">
         <v>200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F59" s="3">
         <v>3700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>3000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>4400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>7300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>500</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>600</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>600</v>
       </c>
       <c r="AA59" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>600</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F60" s="3">
         <v>4600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1000</v>
-      </c>
-      <c r="M60" s="3">
-        <v>2300</v>
-      </c>
-      <c r="N60" s="3">
-        <v>2600</v>
       </c>
       <c r="O60" s="3">
         <v>2300</v>
       </c>
       <c r="P60" s="3">
-        <v>3300</v>
+        <v>2600</v>
       </c>
       <c r="Q60" s="3">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="R60" s="3">
         <v>3300</v>
       </c>
       <c r="S60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="T60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="U60" s="3">
         <v>4600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>7500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>700</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>800</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>1000</v>
       </c>
       <c r="AA60" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>200</v>
@@ -4386,19 +4671,19 @@
         <v>200</v>
       </c>
       <c r="I61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K61" s="3">
         <v>100</v>
       </c>
       <c r="L61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N61" s="3">
         <v>200</v>
@@ -4425,25 +4710,31 @@
         <v>200</v>
       </c>
       <c r="V61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X61" s="3">
         <v>100</v>
       </c>
       <c r="Y61" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA61" s="3">
         <v>200</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4810,14 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5059,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E66" s="3">
         <v>4800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G66" s="3">
         <v>4700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1200</v>
-      </c>
-      <c r="M66" s="3">
-        <v>2500</v>
-      </c>
-      <c r="N66" s="3">
-        <v>2800</v>
       </c>
       <c r="O66" s="3">
         <v>2500</v>
       </c>
       <c r="P66" s="3">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="Q66" s="3">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="R66" s="3">
         <v>3400</v>
       </c>
       <c r="S66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="T66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="U66" s="3">
         <v>4800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>7700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>1000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5422,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5505,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-64800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-62200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-62100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-61800</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-60600</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-60500</v>
       </c>
       <c r="H72" s="3">
         <v>-60600</v>
       </c>
       <c r="I72" s="3">
+        <v>-60500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-60600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-58500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-57800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-57900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-44100</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-44800</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-44900</v>
       </c>
       <c r="O72" s="3">
         <v>-44800</v>
       </c>
       <c r="P72" s="3">
-        <v>-45700</v>
+        <v>-44900</v>
       </c>
       <c r="Q72" s="3">
-        <v>-45200</v>
+        <v>-44800</v>
       </c>
       <c r="R72" s="3">
         <v>-45700</v>
       </c>
       <c r="S72" s="3">
+        <v>-45200</v>
+      </c>
+      <c r="T72" s="3">
+        <v>-45700</v>
+      </c>
+      <c r="U72" s="3">
         <v>-47100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-49900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-43700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-43200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-43100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-42800</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>-42600</v>
-      </c>
-      <c r="Z72" s="3">
-        <v>-42700</v>
       </c>
       <c r="AA72" s="3">
         <v>-42600</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3">
+        <v>-42700</v>
+      </c>
+      <c r="AC72" s="3">
+        <v>-42600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,76 +5837,82 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-4600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-4600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-4000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-3900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-4500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-3600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-2700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-3200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-4600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-7500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-1300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="X76" s="3">
-        <v>-800</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>-800</v>
       </c>
       <c r="Z76" s="3">
         <v>-800</v>
@@ -5549,8 +5920,14 @@
       <c r="AA76" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="AC76" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6003,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-7400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>700</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>1900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>2800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-6300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-200</v>
       </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>0</v>
-      </c>
       <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6209,10 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5840,17 +6237,17 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -5891,8 +6288,14 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,70 +6703,76 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
         <v>-200</v>
       </c>
       <c r="F89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-300</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-200</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N89" s="3">
-        <v>200</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
       <c r="W89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X89" s="3">
         <v>0</v>
@@ -6348,13 +6781,19 @@
         <v>-100</v>
       </c>
       <c r="Z89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AB89" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6821,10 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6432,11 +6873,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>8</v>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>8</v>
@@ -6456,11 +6897,17 @@
       <c r="Z91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,37 +7066,43 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>8</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -6663,11 +7122,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>8</v>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>8</v>
@@ -6675,11 +7134,11 @@
       <c r="V94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-      <c r="X94" s="3">
-        <v>0</v>
+      <c r="W94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y94" s="3">
         <v>0</v>
@@ -6690,8 +7149,14 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7184,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7263,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,35 +7512,41 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>100</v>
       </c>
@@ -7063,7 +7554,7 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -7084,7 +7575,7 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
@@ -7096,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="Y100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z100" s="3">
         <v>0</v>
@@ -7104,8 +7595,14 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7678,14 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7193,17 +7696,17 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -7211,22 +7714,22 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N102" s="3">
-        <v>200</v>
       </c>
       <c r="O102" s="3">
         <v>-100</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
@@ -7235,13 +7738,13 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W102" s="3">
         <v>0</v>
@@ -7250,12 +7753,18 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
-      <c r="Z102" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XSNX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XSNX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>XSNX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,143 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>8</v>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -821,11 +825,11 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
@@ -833,17 +837,17 @@
         <v>0</v>
       </c>
       <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
         <v>400</v>
       </c>
-      <c r="U8" s="3">
-        <v>100</v>
-      </c>
       <c r="V8" s="3">
+        <v>100</v>
+      </c>
+      <c r="W8" s="3">
         <v>400</v>
       </c>
-      <c r="W8" s="3">
-        <v>100</v>
-      </c>
       <c r="X8" s="3">
         <v>100</v>
       </c>
@@ -851,19 +855,22 @@
         <v>100</v>
       </c>
       <c r="Z8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA8" s="3">
         <v>200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>400</v>
       </c>
-      <c r="AC8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -903,50 +910,53 @@
       <c r="O9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="3">
         <v>200</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U9" s="3">
         <v>200</v>
       </c>
-      <c r="U9" s="3">
-        <v>100</v>
-      </c>
       <c r="V9" s="3">
+        <v>100</v>
+      </c>
+      <c r="W9" s="3">
         <v>300</v>
       </c>
-      <c r="W9" s="3">
-        <v>0</v>
-      </c>
       <c r="X9" s="3">
         <v>0</v>
       </c>
       <c r="Y9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="3">
         <v>100</v>
       </c>
       <c r="AA9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB9" s="3">
         <v>400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>300</v>
       </c>
-      <c r="AC9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -986,11 +996,11 @@
       <c r="O10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>8</v>
+      <c r="P10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>8</v>
@@ -998,14 +1008,14 @@
       <c r="S10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U10" s="3">
         <v>200</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
       <c r="V10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W10" s="3">
         <v>100</v>
@@ -1014,10 +1024,10 @@
         <v>100</v>
       </c>
       <c r="Y10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="3">
         <v>100</v>
@@ -1026,10 +1036,13 @@
         <v>100</v>
       </c>
       <c r="AC10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1071,16 +1085,16 @@
         <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>8</v>
+      <c r="I12" s="3">
+        <v>0</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>8</v>
@@ -1142,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,31 +1242,34 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>100</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>100</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1257,12 +1277,12 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>5100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1288,17 +1308,17 @@
         <v>0</v>
       </c>
       <c r="W14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X14" s="3">
         <v>100</v>
       </c>
       <c r="Y14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z14" s="3">
         <v>200</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1308,43 +1328,46 @@
       <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,47 +1445,48 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
-      </c>
-      <c r="E17" s="3">
-        <v>300</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
       </c>
       <c r="G17" s="3">
+        <v>300</v>
+      </c>
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>500</v>
       </c>
       <c r="J17" s="3">
         <v>500</v>
       </c>
       <c r="K17" s="3">
+        <v>500</v>
+      </c>
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
-        <v>100</v>
-      </c>
       <c r="P17" s="3">
         <v>100</v>
       </c>
@@ -1470,111 +1497,114 @@
         <v>100</v>
       </c>
       <c r="S17" s="3">
+        <v>100</v>
+      </c>
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>200</v>
-      </c>
-      <c r="X17" s="3">
-        <v>300</v>
       </c>
       <c r="Y17" s="3">
         <v>300</v>
       </c>
       <c r="Z17" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA17" s="3">
         <v>200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>8</v>
+      <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-500</v>
       </c>
       <c r="I18" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="J18" s="3">
         <v>-500</v>
       </c>
       <c r="K18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>100</v>
-      </c>
       <c r="Q18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
       <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>-100</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-200</v>
       </c>
       <c r="Y18" s="3">
         <v>-200</v>
       </c>
       <c r="Z18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AA18" s="3">
         <v>0</v>
@@ -1583,10 +1613,13 @@
         <v>0</v>
       </c>
       <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,174 +1649,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>8</v>
+      <c r="E20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F20" s="3">
+        <v>800</v>
+      </c>
+      <c r="G20" s="3">
+        <v>600</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-500</v>
       </c>
       <c r="I20" s="3">
+        <v>600</v>
+      </c>
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-6200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-300</v>
       </c>
-      <c r="X20" s="3">
-        <v>100</v>
-      </c>
       <c r="Y20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-200</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
+      <c r="E21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>500</v>
+      </c>
+      <c r="G21" s="3">
+        <v>200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-1000</v>
       </c>
       <c r="I21" s="3">
+        <v>200</v>
+      </c>
+      <c r="J21" s="3">
         <v>500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3">
         <v>800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-6200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-200</v>
       </c>
-      <c r="AA21" s="3">
-        <v>0</v>
-      </c>
       <c r="AB21" s="3">
         <v>0</v>
       </c>
       <c r="AC21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1791,22 +1831,22 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F22" s="3">
         <v>500</v>
       </c>
       <c r="G22" s="3">
+        <v>500</v>
+      </c>
+      <c r="H22" s="3">
         <v>300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>400</v>
       </c>
       <c r="I22" s="3">
         <v>400</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1833,10 +1873,10 @@
         <v>0</v>
       </c>
       <c r="S22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1865,91 +1905,97 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
       <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-6300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-200</v>
       </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
       <c r="AB23" s="3">
         <v>0</v>
       </c>
       <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2031,8 +2077,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
       <c r="J26" s="3">
+        <v>100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-6300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-200</v>
       </c>
-      <c r="AA26" s="3">
-        <v>0</v>
-      </c>
       <c r="AB26" s="3">
         <v>0</v>
       </c>
       <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
       <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-6300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
       <c r="AB27" s="3">
         <v>0</v>
       </c>
       <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2444,8 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -2399,28 +2460,28 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>200</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>300</v>
       </c>
-      <c r="R29" s="3">
-        <v>100</v>
-      </c>
       <c r="S29" s="3">
+        <v>100</v>
+      </c>
+      <c r="T29" s="3">
         <v>400</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2679,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>8</v>
+      <c r="E32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H32" s="3">
+        <v>500</v>
       </c>
       <c r="I32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1300</v>
       </c>
-      <c r="O32" s="3">
-        <v>100</v>
-      </c>
       <c r="P32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>6200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
-        <v>100</v>
-      </c>
       <c r="Z32" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA32" s="3">
         <v>200</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
       <c r="AB32" s="3">
         <v>0</v>
       </c>
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
       <c r="J33" s="3">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>700</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-6300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
-      <c r="AA33" s="3">
-        <v>0</v>
-      </c>
       <c r="AB33" s="3">
         <v>0</v>
       </c>
       <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
       <c r="J35" s="3">
+        <v>100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>700</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-6300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
-      <c r="AA35" s="3">
-        <v>0</v>
-      </c>
       <c r="AB35" s="3">
         <v>0</v>
       </c>
       <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,8 +3180,9 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3103,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
@@ -3112,14 +3199,14 @@
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -3133,31 +3220,31 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X41" s="3">
         <v>0</v>
@@ -3166,19 +3253,22 @@
         <v>0</v>
       </c>
       <c r="Z41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,8 +3350,11 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3299,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
         <v>300</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>200</v>
       </c>
       <c r="R43" s="3">
         <v>200</v>
@@ -3314,7 +3407,7 @@
         <v>200</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U43" s="3">
         <v>100</v>
@@ -3323,7 +3416,7 @@
         <v>100</v>
       </c>
       <c r="W43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X43" s="3">
         <v>0</v>
@@ -3335,16 +3428,19 @@
         <v>0</v>
       </c>
       <c r="AA43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3405,43 +3501,46 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>8</v>
+      <c r="W44" s="3">
+        <v>0</v>
       </c>
       <c r="X44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y44" s="3">
-        <v>0</v>
+      <c r="Y44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z44" s="3">
         <v>0</v>
       </c>
       <c r="AA44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -3452,14 +3551,14 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -3509,32 +3608,35 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>100</v>
+      <c r="D46" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
       </c>
       <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
-        <v>100</v>
-      </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
@@ -3548,22 +3650,22 @@
         <v>0</v>
       </c>
       <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
-      </c>
-      <c r="R46" s="3">
-        <v>300</v>
       </c>
       <c r="S46" s="3">
         <v>300</v>
       </c>
       <c r="T46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U46" s="3">
         <v>200</v>
@@ -3572,7 +3674,7 @@
         <v>200</v>
       </c>
       <c r="W46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X46" s="3">
         <v>0</v>
@@ -3581,19 +3683,22 @@
         <v>0</v>
       </c>
       <c r="Z46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB46" s="3">
         <v>200</v>
       </c>
-      <c r="AB46" s="3">
-        <v>100</v>
-      </c>
       <c r="AC46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3675,8 +3780,11 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3758,8 +3866,11 @@
       <c r="AC48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3841,8 +3952,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4124,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4090,8 +4210,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,8 +4296,11 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4185,20 +4311,20 @@
         <v>100</v>
       </c>
       <c r="F54" s="3">
+        <v>100</v>
+      </c>
+      <c r="G54" s="3">
         <v>200</v>
       </c>
-      <c r="G54" s="3">
-        <v>100</v>
-      </c>
       <c r="H54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
@@ -4212,22 +4338,22 @@
         <v>0</v>
       </c>
       <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>200</v>
-      </c>
-      <c r="R54" s="3">
-        <v>300</v>
       </c>
       <c r="S54" s="3">
         <v>300</v>
       </c>
       <c r="T54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U54" s="3">
         <v>200</v>
@@ -4236,7 +4362,7 @@
         <v>200</v>
       </c>
       <c r="W54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X54" s="3">
         <v>0</v>
@@ -4245,19 +4371,22 @@
         <v>0</v>
       </c>
       <c r="Z54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB54" s="3">
         <v>200</v>
       </c>
-      <c r="AB54" s="3">
-        <v>100</v>
-      </c>
       <c r="AC54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,8 +4448,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4330,34 +4461,34 @@
         <v>400</v>
       </c>
       <c r="F57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
-        <v>100</v>
-      </c>
       <c r="J57" s="3">
+        <v>100</v>
+      </c>
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
-        <v>100</v>
-      </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
@@ -4366,11 +4497,11 @@
         <v>100</v>
       </c>
       <c r="R57" s="3">
+        <v>100</v>
+      </c>
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3">
-        <v>100</v>
-      </c>
       <c r="T57" s="3">
         <v>100</v>
       </c>
@@ -4378,11 +4509,11 @@
         <v>100</v>
       </c>
       <c r="V57" s="3">
+        <v>100</v>
+      </c>
+      <c r="W57" s="3">
         <v>200</v>
       </c>
-      <c r="W57" s="3">
-        <v>100</v>
-      </c>
       <c r="X57" s="3">
         <v>100</v>
       </c>
@@ -4390,45 +4521,48 @@
         <v>100</v>
       </c>
       <c r="Z57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA57" s="3">
         <v>200</v>
       </c>
       <c r="AB57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E58" s="3">
         <v>1500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1300</v>
-      </c>
-      <c r="F58" s="3">
-        <v>600</v>
       </c>
       <c r="G58" s="3">
         <v>600</v>
       </c>
       <c r="H58" s="3">
+        <v>600</v>
+      </c>
+      <c r="I58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3">
-        <v>100</v>
-      </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
@@ -4443,10 +4577,10 @@
         <v>100</v>
       </c>
       <c r="P58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
@@ -4467,11 +4601,11 @@
         <v>100</v>
       </c>
       <c r="X58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y58" s="3">
         <v>200</v>
       </c>
-      <c r="Y58" s="3">
-        <v>100</v>
-      </c>
       <c r="Z58" s="3">
         <v>100</v>
       </c>
@@ -4479,87 +4613,90 @@
         <v>100</v>
       </c>
       <c r="AB58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AC58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E59" s="3">
         <v>5100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>7300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>500</v>
-      </c>
-      <c r="AA59" s="3">
-        <v>600</v>
       </c>
       <c r="AB59" s="3">
         <v>600</v>
@@ -4567,91 +4704,97 @@
       <c r="AC59" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E60" s="3">
         <v>7100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4662,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>200</v>
@@ -4677,7 +4820,7 @@
         <v>200</v>
       </c>
       <c r="K61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L61" s="3">
         <v>100</v>
@@ -4686,7 +4829,7 @@
         <v>100</v>
       </c>
       <c r="N61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O61" s="3">
         <v>200</v>
@@ -4716,7 +4859,7 @@
         <v>200</v>
       </c>
       <c r="X61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y61" s="3">
         <v>100</v>
@@ -4725,16 +4868,19 @@
         <v>100</v>
       </c>
       <c r="AA61" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB61" s="3">
         <v>200</v>
       </c>
-      <c r="AB61" s="3">
-        <v>0</v>
-      </c>
       <c r="AC61" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4816,8 +4962,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E66" s="3">
         <v>7100</v>
-      </c>
-      <c r="E66" s="3">
-        <v>4800</v>
       </c>
       <c r="F66" s="3">
         <v>4800</v>
       </c>
       <c r="G66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H66" s="3">
         <v>4700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>900</v>
-      </c>
-      <c r="AA66" s="3">
-        <v>1000</v>
       </c>
       <c r="AB66" s="3">
         <v>1000</v>
       </c>
       <c r="AC66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AD66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-64400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-64800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-62200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-62100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-61800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-60600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-60500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-60600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-58500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-57800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-57900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-44100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-44800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-44900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-44800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-45700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-45200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-45700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-47100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-49900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-43700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-43200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-43100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-42800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-42600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-42700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-42600</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,79 +6026,82 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-7000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4700</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-4600</v>
       </c>
       <c r="G76" s="3">
         <v>-4600</v>
       </c>
       <c r="H76" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="I76" s="3">
         <v>-4000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-4500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-2300</v>
       </c>
       <c r="P76" s="3">
         <v>-2300</v>
       </c>
       <c r="Q76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="R76" s="3">
         <v>-2200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-3100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-3200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-4600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-7500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>-800</v>
       </c>
       <c r="AA76" s="3">
         <v>-800</v>
@@ -5926,8 +6112,11 @@
       <c r="AC76" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
       <c r="J81" s="3">
+        <v>100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>700</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-6300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
-      <c r="AA81" s="3">
-        <v>0</v>
-      </c>
       <c r="AB81" s="3">
         <v>0</v>
       </c>
       <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6243,14 +6442,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>8</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -6294,8 +6493,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,8 +6923,11 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6721,44 +6938,44 @@
         <v>-200</v>
       </c>
       <c r="F89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-300</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-200</v>
       </c>
       <c r="H89" s="3">
         <v>-200</v>
       </c>
       <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
@@ -6766,11 +6983,11 @@
         <v>0</v>
       </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
         <v>0</v>
       </c>
@@ -6778,22 +6995,25 @@
         <v>0</v>
       </c>
       <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
       <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-100</v>
       </c>
-      <c r="AB89" s="3">
-        <v>100</v>
-      </c>
       <c r="AC89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7043,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6879,8 +7100,8 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>8</v>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>8</v>
@@ -6903,11 +7124,14 @@
       <c r="AB91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,8 +7299,11 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7098,14 +7328,14 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -7128,8 +7358,8 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>8</v>
+      <c r="U94" s="3">
+        <v>0</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>8</v>
@@ -7140,8 +7370,8 @@
       <c r="X94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
+      <c r="Y94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z94" s="3">
         <v>0</v>
@@ -7155,8 +7385,11 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,46 +7761,49 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
-      </c>
-      <c r="F100" s="3">
-        <v>300</v>
       </c>
       <c r="G100" s="3">
         <v>300</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -7581,16 +7827,16 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA100" s="3">
         <v>0</v>
@@ -7601,8 +7847,11 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,8 +7933,11 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7702,14 +7954,14 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -7720,20 +7972,20 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
         <v>-100</v>
       </c>
       <c r="P102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
@@ -7744,10 +7996,10 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X102" s="3">
         <v>0</v>
@@ -7759,12 +8011,15 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
-      <c r="AB102" s="3">
-        <v>100</v>
-      </c>
       <c r="AC102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/XSNX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/XSNX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>XSNX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,130 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -828,11 +832,11 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
@@ -840,17 +844,17 @@
         <v>0</v>
       </c>
       <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
         <v>400</v>
       </c>
-      <c r="V8" s="3">
-        <v>100</v>
-      </c>
       <c r="W8" s="3">
+        <v>100</v>
+      </c>
+      <c r="X8" s="3">
         <v>400</v>
       </c>
-      <c r="X8" s="3">
-        <v>100</v>
-      </c>
       <c r="Y8" s="3">
         <v>100</v>
       </c>
@@ -858,19 +862,22 @@
         <v>100</v>
       </c>
       <c r="AA8" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB8" s="3">
         <v>200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>400</v>
       </c>
-      <c r="AD8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -913,50 +920,53 @@
       <c r="P9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R9" s="3">
         <v>200</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9" s="3">
         <v>200</v>
       </c>
-      <c r="V9" s="3">
-        <v>100</v>
-      </c>
       <c r="W9" s="3">
+        <v>100</v>
+      </c>
+      <c r="X9" s="3">
         <v>300</v>
       </c>
-      <c r="X9" s="3">
-        <v>0</v>
-      </c>
       <c r="Y9" s="3">
         <v>0</v>
       </c>
       <c r="Z9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="3">
         <v>100</v>
       </c>
       <c r="AB9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC9" s="3">
         <v>400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>300</v>
       </c>
-      <c r="AD9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -999,11 +1009,11 @@
       <c r="P10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>8</v>
+      <c r="Q10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>8</v>
@@ -1011,14 +1021,14 @@
       <c r="T10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V10" s="3">
         <v>200</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
       <c r="W10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X10" s="3">
         <v>100</v>
@@ -1027,10 +1037,10 @@
         <v>100</v>
       </c>
       <c r="Z10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="3">
         <v>100</v>
@@ -1039,10 +1049,13 @@
         <v>100</v>
       </c>
       <c r="AD10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1088,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>8</v>
+      <c r="J12" s="3">
+        <v>0</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>8</v>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,34 +1262,37 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>100</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>100</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1280,12 +1300,12 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>5100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1311,17 +1331,17 @@
         <v>0</v>
       </c>
       <c r="X14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="3">
         <v>100</v>
       </c>
       <c r="Z14" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA14" s="3">
         <v>200</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1357,20 +1380,20 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,50 +1472,51 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>500</v>
       </c>
       <c r="E17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
-      </c>
-      <c r="F17" s="3">
-        <v>300</v>
       </c>
       <c r="G17" s="3">
         <v>300</v>
       </c>
       <c r="H17" s="3">
+        <v>300</v>
+      </c>
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>500</v>
       </c>
       <c r="K17" s="3">
         <v>500</v>
       </c>
       <c r="L17" s="3">
+        <v>500</v>
+      </c>
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
-        <v>100</v>
-      </c>
       <c r="Q17" s="3">
         <v>100</v>
       </c>
@@ -1500,40 +1527,43 @@
         <v>100</v>
       </c>
       <c r="T17" s="3">
+        <v>100</v>
+      </c>
+      <c r="U17" s="3">
         <v>300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>200</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>300</v>
       </c>
       <c r="Z17" s="3">
         <v>300</v>
       </c>
       <c r="AA17" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB17" s="3">
         <v>200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>400</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1541,73 +1571,73 @@
         <v>8</v>
       </c>
       <c r="E18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-300</v>
       </c>
       <c r="G18" s="3">
         <v>-300</v>
       </c>
       <c r="H18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-500</v>
       </c>
       <c r="K18" s="3">
         <v>-500</v>
       </c>
       <c r="L18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-5200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>100</v>
-      </c>
       <c r="R18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="S18" s="3">
         <v>-100</v>
       </c>
       <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-100</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>-200</v>
       </c>
       <c r="Z18" s="3">
         <v>-200</v>
       </c>
       <c r="AA18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AB18" s="3">
         <v>0</v>
@@ -1616,10 +1646,13 @@
         <v>0</v>
       </c>
       <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1659,85 +1693,88 @@
         <v>8</v>
       </c>
       <c r="E20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>3000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-6200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-300</v>
       </c>
-      <c r="Y20" s="3">
-        <v>100</v>
-      </c>
       <c r="Z20" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-200</v>
       </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
       <c r="AC20" s="3">
         <v>0</v>
       </c>
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1745,85 +1782,88 @@
         <v>8</v>
       </c>
       <c r="E21" s="3">
+        <v>700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3">
         <v>800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-6200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-200</v>
       </c>
-      <c r="AB21" s="3">
-        <v>0</v>
-      </c>
       <c r="AC21" s="3">
         <v>0</v>
       </c>
       <c r="AD21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1834,22 +1874,22 @@
         <v>300</v>
       </c>
       <c r="F22" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>500</v>
       </c>
       <c r="H22" s="3">
+        <v>500</v>
+      </c>
+      <c r="I22" s="3">
         <v>300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>400</v>
       </c>
       <c r="J22" s="3">
         <v>400</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1876,10 +1916,10 @@
         <v>0</v>
       </c>
       <c r="T22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1908,94 +1948,100 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
+      <c r="D23" s="3">
+        <v>-800</v>
       </c>
       <c r="E23" s="3">
+        <v>500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
       <c r="K23" s="3">
+        <v>100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-2100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-6300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-200</v>
       </c>
-      <c r="AB23" s="3">
-        <v>0</v>
-      </c>
       <c r="AC23" s="3">
         <v>0</v>
       </c>
       <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-800</v>
       </c>
       <c r="E26" s="3">
+        <v>500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>100</v>
-      </c>
       <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-2100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-6300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-200</v>
       </c>
-      <c r="AB26" s="3">
-        <v>0</v>
-      </c>
       <c r="AC26" s="3">
         <v>0</v>
       </c>
       <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-800</v>
       </c>
       <c r="E27" s="3">
+        <v>400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>100</v>
-      </c>
       <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-2100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-6300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-200</v>
       </c>
-      <c r="AB27" s="3">
-        <v>0</v>
-      </c>
       <c r="AC27" s="3">
         <v>0</v>
       </c>
       <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2508,8 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2463,28 +2524,28 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>200</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>300</v>
       </c>
-      <c r="S29" s="3">
-        <v>100</v>
-      </c>
       <c r="T29" s="3">
+        <v>100</v>
+      </c>
+      <c r="U29" s="3">
         <v>400</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V29" s="3">
-        <v>0</v>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W29" s="3">
         <v>0</v>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2691,171 +2761,177 @@
         <v>8</v>
       </c>
       <c r="E32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F32" s="3">
         <v>1800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1300</v>
       </c>
-      <c r="P32" s="3">
-        <v>100</v>
-      </c>
       <c r="Q32" s="3">
+        <v>100</v>
+      </c>
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-3000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>6200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Z32" s="3">
-        <v>100</v>
-      </c>
       <c r="AA32" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB32" s="3">
         <v>200</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
       <c r="AC32" s="3">
         <v>0</v>
       </c>
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-800</v>
       </c>
       <c r="E33" s="3">
+        <v>400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
       <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-2100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>700</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-6300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-200</v>
       </c>
-      <c r="AB33" s="3">
-        <v>0</v>
-      </c>
       <c r="AC33" s="3">
         <v>0</v>
       </c>
       <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-800</v>
       </c>
       <c r="E35" s="3">
+        <v>400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
       <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-2100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>700</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-6300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-200</v>
       </c>
-      <c r="AB35" s="3">
-        <v>0</v>
-      </c>
       <c r="AC35" s="3">
         <v>0</v>
       </c>
       <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,19 +3267,20 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
@@ -3202,14 +3289,14 @@
         <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -3223,31 +3310,31 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y41" s="3">
         <v>0</v>
@@ -3256,19 +3343,22 @@
         <v>0</v>
       </c>
       <c r="AA41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,31 +3443,34 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -3395,13 +3488,13 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
         <v>300</v>
-      </c>
-      <c r="R43" s="3">
-        <v>200</v>
       </c>
       <c r="S43" s="3">
         <v>200</v>
@@ -3410,7 +3503,7 @@
         <v>200</v>
       </c>
       <c r="U43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V43" s="3">
         <v>100</v>
@@ -3419,7 +3512,7 @@
         <v>100</v>
       </c>
       <c r="X43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y43" s="3">
         <v>0</v>
@@ -3431,16 +3524,19 @@
         <v>0</v>
       </c>
       <c r="AB43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3504,46 +3600,49 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>8</v>
+      <c r="X44" s="3">
+        <v>0</v>
       </c>
       <c r="Y44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z44" s="3">
-        <v>0</v>
+      <c r="Z44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA44" s="3">
         <v>0</v>
       </c>
       <c r="AB44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -3554,14 +3653,14 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -3611,13 +3710,16 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>8</v>
+      <c r="D46" s="3">
+        <v>200</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
@@ -3626,20 +3728,20 @@
         <v>100</v>
       </c>
       <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
-        <v>100</v>
-      </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -3653,22 +3755,22 @@
         <v>0</v>
       </c>
       <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>200</v>
-      </c>
-      <c r="S46" s="3">
-        <v>300</v>
       </c>
       <c r="T46" s="3">
         <v>300</v>
       </c>
       <c r="U46" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V46" s="3">
         <v>200</v>
@@ -3677,7 +3779,7 @@
         <v>200</v>
       </c>
       <c r="X46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Y46" s="3">
         <v>0</v>
@@ -3686,19 +3788,22 @@
         <v>0</v>
       </c>
       <c r="AA46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC46" s="3">
         <v>200</v>
       </c>
-      <c r="AC46" s="3">
-        <v>100</v>
-      </c>
       <c r="AD46" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,8 +3888,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3869,8 +3977,11 @@
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,13 +4422,16 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
@@ -4314,20 +4440,20 @@
         <v>100</v>
       </c>
       <c r="G54" s="3">
+        <v>100</v>
+      </c>
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3">
-        <v>100</v>
-      </c>
       <c r="I54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
@@ -4341,22 +4467,22 @@
         <v>0</v>
       </c>
       <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>200</v>
-      </c>
-      <c r="S54" s="3">
-        <v>300</v>
       </c>
       <c r="T54" s="3">
         <v>300</v>
       </c>
       <c r="U54" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V54" s="3">
         <v>200</v>
@@ -4365,7 +4491,7 @@
         <v>200</v>
       </c>
       <c r="X54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Y54" s="3">
         <v>0</v>
@@ -4374,19 +4500,22 @@
         <v>0</v>
       </c>
       <c r="AA54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC54" s="3">
         <v>200</v>
       </c>
-      <c r="AC54" s="3">
-        <v>100</v>
-      </c>
       <c r="AD54" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,13 +4579,14 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
@@ -4464,34 +4595,34 @@
         <v>400</v>
       </c>
       <c r="G57" s="3">
+        <v>400</v>
+      </c>
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
-        <v>100</v>
-      </c>
       <c r="K57" s="3">
+        <v>100</v>
+      </c>
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
-        <v>100</v>
-      </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
@@ -4500,11 +4631,11 @@
         <v>100</v>
       </c>
       <c r="S57" s="3">
+        <v>100</v>
+      </c>
+      <c r="T57" s="3">
         <v>200</v>
       </c>
-      <c r="T57" s="3">
-        <v>100</v>
-      </c>
       <c r="U57" s="3">
         <v>100</v>
       </c>
@@ -4512,11 +4643,11 @@
         <v>100</v>
       </c>
       <c r="W57" s="3">
+        <v>100</v>
+      </c>
+      <c r="X57" s="3">
         <v>200</v>
       </c>
-      <c r="X57" s="3">
-        <v>100</v>
-      </c>
       <c r="Y57" s="3">
         <v>100</v>
       </c>
@@ -4524,48 +4655,51 @@
         <v>100</v>
       </c>
       <c r="AA57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AB57" s="3">
         <v>200</v>
       </c>
       <c r="AC57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AD57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E58" s="3">
         <v>1800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1300</v>
-      </c>
-      <c r="G58" s="3">
-        <v>600</v>
       </c>
       <c r="H58" s="3">
         <v>600</v>
       </c>
       <c r="I58" s="3">
+        <v>600</v>
+      </c>
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
-        <v>100</v>
-      </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
@@ -4580,10 +4714,10 @@
         <v>100</v>
       </c>
       <c r="Q58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>100</v>
@@ -4604,11 +4738,11 @@
         <v>100</v>
       </c>
       <c r="Y58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z58" s="3">
         <v>200</v>
       </c>
-      <c r="Z58" s="3">
-        <v>100</v>
-      </c>
       <c r="AA58" s="3">
         <v>100</v>
       </c>
@@ -4616,90 +4750,93 @@
         <v>100</v>
       </c>
       <c r="AC58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AD58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>7300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>500</v>
-      </c>
-      <c r="AB59" s="3">
-        <v>600</v>
       </c>
       <c r="AC59" s="3">
         <v>600</v>
@@ -4707,94 +4844,100 @@
       <c r="AD59" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E60" s="3">
         <v>5800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4808,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>200</v>
@@ -4823,7 +4966,7 @@
         <v>200</v>
       </c>
       <c r="L61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M61" s="3">
         <v>100</v>
@@ -4832,7 +4975,7 @@
         <v>100</v>
       </c>
       <c r="O61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P61" s="3">
         <v>200</v>
@@ -4862,7 +5005,7 @@
         <v>200</v>
       </c>
       <c r="Y61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z61" s="3">
         <v>100</v>
@@ -4871,16 +5014,19 @@
         <v>100</v>
       </c>
       <c r="AB61" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC61" s="3">
         <v>200</v>
       </c>
-      <c r="AC61" s="3">
-        <v>0</v>
-      </c>
       <c r="AD61" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E66" s="3">
         <v>5800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7100</v>
-      </c>
-      <c r="F66" s="3">
-        <v>4800</v>
       </c>
       <c r="G66" s="3">
         <v>4800</v>
       </c>
       <c r="H66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I66" s="3">
         <v>4700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>900</v>
-      </c>
-      <c r="AB66" s="3">
-        <v>1000</v>
       </c>
       <c r="AC66" s="3">
         <v>1000</v>
       </c>
       <c r="AD66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AE66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-65100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-64400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-64800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-62200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-62100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-61800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-60600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-60500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-60600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-58500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-57800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-57900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-44100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-44800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-44900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-44800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-45700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-45200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-45700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-47100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-49900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-43700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-43200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-43100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-42800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-42600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-42700</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-42600</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,82 +6212,85 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-7000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4700</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-4600</v>
       </c>
       <c r="H76" s="3">
         <v>-4600</v>
       </c>
       <c r="I76" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="J76" s="3">
         <v>-4000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1200</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-2300</v>
       </c>
       <c r="Q76" s="3">
         <v>-2300</v>
       </c>
       <c r="R76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="S76" s="3">
         <v>-2200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-3100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-3200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-4600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-7500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="AA76" s="3">
-        <v>-800</v>
       </c>
       <c r="AB76" s="3">
         <v>-800</v>
@@ -6115,8 +6301,11 @@
       <c r="AD76" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-800</v>
       </c>
       <c r="E81" s="3">
+        <v>400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
       <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-2100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>700</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-6300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-200</v>
       </c>
-      <c r="AB81" s="3">
-        <v>0</v>
-      </c>
       <c r="AC81" s="3">
         <v>0</v>
       </c>
       <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6445,14 +6644,14 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,13 +7140,16 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>-200</v>
@@ -6941,44 +7158,44 @@
         <v>-200</v>
       </c>
       <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-300</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-200</v>
       </c>
       <c r="I89" s="3">
         <v>-200</v>
       </c>
       <c r="J89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
@@ -6986,11 +7203,11 @@
         <v>0</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
         <v>0</v>
       </c>
@@ -6998,22 +7215,25 @@
         <v>0</v>
       </c>
       <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
       <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
         <v>-100</v>
       </c>
-      <c r="AC89" s="3">
-        <v>100</v>
-      </c>
       <c r="AD89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7103,8 +7324,8 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>8</v>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>8</v>
@@ -7127,11 +7348,14 @@
       <c r="AC91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7331,14 +7561,14 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -7361,8 +7591,8 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>8</v>
+      <c r="V94" s="3">
+        <v>0</v>
       </c>
       <c r="W94" s="3" t="s">
         <v>8</v>
@@ -7373,8 +7603,8 @@
       <c r="Y94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
+      <c r="Z94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA94" s="3">
         <v>0</v>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7773,40 +8019,40 @@
         <v>200</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
-      </c>
-      <c r="G100" s="3">
-        <v>300</v>
       </c>
       <c r="H100" s="3">
         <v>300</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -7830,16 +8076,16 @@
         <v>0</v>
       </c>
       <c r="X100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB100" s="3">
         <v>0</v>
@@ -7850,8 +8096,11 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,8 +8185,11 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7957,14 +8209,14 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -7975,20 +8227,20 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
         <v>-100</v>
       </c>
       <c r="Q102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
@@ -7999,10 +8251,10 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y102" s="3">
         <v>0</v>
@@ -8014,12 +8266,15 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>-100</v>
       </c>
-      <c r="AC102" s="3">
-        <v>100</v>
-      </c>
       <c r="AD102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>
